--- a/base_datos/compras/compras_stock.xlsx
+++ b/base_datos/compras/compras_stock.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novakorp\Desktop\ITBA\data_aplications\etl_airflow\base_datos\inventario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novakorp\Desktop\ITBA\data_aplications\etl_airflow\base_datos\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1179">
   <si>
     <t xml:space="preserve">Modelo </t>
   </si>
@@ -3561,195 +3561,6 @@
   </si>
   <si>
     <t>MECHA EZETA ACERO RAPIDO DE 11.50 MM</t>
-  </si>
-  <si>
-    <t>ID-00000407</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 11.75 MM</t>
-  </si>
-  <si>
-    <t>ID-00000408</t>
-  </si>
-  <si>
-    <t>03318</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.00 MM</t>
-  </si>
-  <si>
-    <t>ID-00000409</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.25 MM</t>
-  </si>
-  <si>
-    <t>ID-00000410</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.50 MM</t>
-  </si>
-  <si>
-    <t>ID-00000411</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.75 MM</t>
-  </si>
-  <si>
-    <t>ID-00000412</t>
-  </si>
-  <si>
-    <t>03326</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 13.00 MM</t>
-  </si>
-  <si>
-    <t>ID-00000413</t>
-  </si>
-  <si>
-    <t>TIJERA P/CORTA ALAMBRE RUCCI</t>
-  </si>
-  <si>
-    <t>RUCCI</t>
-  </si>
-  <si>
-    <t>ID-00000414</t>
-  </si>
-  <si>
-    <t>03688.38</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 3.5 X 25MM</t>
-  </si>
-  <si>
-    <t>ARGENRAP</t>
-  </si>
-  <si>
-    <t>ID-00000415</t>
-  </si>
-  <si>
-    <t>03688.46</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4 X 10 MM</t>
-  </si>
-  <si>
-    <t>RERAR</t>
-  </si>
-  <si>
-    <t>ID-00000416</t>
-  </si>
-  <si>
-    <t>03688.54</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4 X 14 MM</t>
-  </si>
-  <si>
-    <t>BULONFER S.A</t>
-  </si>
-  <si>
-    <t>ID-00000417</t>
-  </si>
-  <si>
-    <t>03688.60</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4 X 20 MM</t>
-  </si>
-  <si>
-    <t>ID-00000418</t>
-  </si>
-  <si>
-    <t>03688.80</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4.8 X 14 MM</t>
-  </si>
-  <si>
-    <t>ID-00000419</t>
-  </si>
-  <si>
-    <t>76.5.20</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 5 X 20 MM</t>
-  </si>
-  <si>
-    <t>ID-00000420</t>
-  </si>
-  <si>
-    <t>304MI071016</t>
-  </si>
-  <si>
-    <t>ABRAZADERA 7 MM DE</t>
-  </si>
-  <si>
-    <t>PERFECTO</t>
-  </si>
-  <si>
-    <t>ID-00000421</t>
-  </si>
-  <si>
-    <t>APAREJO A PALANCA X 3 TN</t>
-  </si>
-  <si>
-    <t>GAN-MAR</t>
-  </si>
-  <si>
-    <t>ID-00000422</t>
-  </si>
-  <si>
-    <t>APAREJO A PALANCA X 2 TN</t>
-  </si>
-  <si>
-    <t>ID-00000423</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS Nº 2 PAPAGNO</t>
-  </si>
-  <si>
-    <t>PAPAGNO</t>
-  </si>
-  <si>
-    <t>ID-00000424</t>
-  </si>
-  <si>
-    <t>0479.85</t>
-  </si>
-  <si>
-    <t>CUCHARA DE ALBAÑIL 5 1/2</t>
-  </si>
-  <si>
-    <t>ID-00000425</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS Nº 7 PAPAGNO</t>
-  </si>
-  <si>
-    <t>ID-00000426</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS Nº 25 PAPAGNO</t>
-  </si>
-  <si>
-    <t>ID-00000427</t>
-  </si>
-  <si>
-    <t>00644.75</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS TIPO FUELLE ROJA</t>
-  </si>
-  <si>
-    <t>ID-00000428</t>
-  </si>
-  <si>
-    <t>METRO DE MADERA DE 1.00 MTS.</t>
-  </si>
-  <si>
-    <t>RACORT</t>
   </si>
   <si>
     <t>id_product</t>
@@ -4087,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4114,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1241</v>
+        <v>1178</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -59839,3015 +59650,1037 @@
       </c>
     </row>
     <row r="408" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A408" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B408" s="4">
-        <v>100001175</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F408" s="3">
-        <v>1</v>
-      </c>
-      <c r="G408" s="2">
-        <v>0</v>
-      </c>
-      <c r="H408" s="2">
-        <v>0</v>
-      </c>
-      <c r="I408" s="2">
-        <v>0</v>
-      </c>
-      <c r="J408" s="2">
-        <v>0</v>
-      </c>
-      <c r="K408" s="2">
-        <v>0</v>
-      </c>
-      <c r="L408" s="2">
-        <v>0</v>
-      </c>
-      <c r="M408" s="3">
-        <v>1</v>
-      </c>
-      <c r="N408" s="2">
-        <v>0</v>
-      </c>
-      <c r="O408" s="2">
-        <v>0</v>
-      </c>
-      <c r="P408" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q408" s="2">
-        <v>0</v>
-      </c>
-      <c r="R408" s="2">
-        <v>0</v>
-      </c>
-      <c r="S408" s="2">
-        <v>0</v>
-      </c>
-      <c r="T408" s="2">
-        <v>1</v>
-      </c>
-      <c r="U408" s="2">
-        <v>0</v>
-      </c>
-      <c r="V408" s="3">
-        <v>1</v>
-      </c>
-      <c r="W408" s="2">
-        <v>0</v>
-      </c>
-      <c r="X408" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y408" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB408" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH408" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM408" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS408" s="2">
-        <v>0</v>
-      </c>
+      <c r="A408" s="1"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="2"/>
+      <c r="H408" s="2"/>
+      <c r="I408" s="2"/>
+      <c r="J408" s="2"/>
+      <c r="K408" s="2"/>
+      <c r="L408" s="2"/>
+      <c r="M408" s="3"/>
+      <c r="N408" s="2"/>
+      <c r="O408" s="2"/>
+      <c r="P408" s="2"/>
+      <c r="Q408" s="2"/>
+      <c r="R408" s="2"/>
+      <c r="S408" s="2"/>
+      <c r="T408" s="2"/>
+      <c r="U408" s="2"/>
+      <c r="V408" s="3"/>
+      <c r="W408" s="2"/>
+      <c r="X408" s="2"/>
+      <c r="Y408" s="2"/>
+      <c r="Z408" s="2"/>
+      <c r="AA408" s="2"/>
+      <c r="AB408" s="3"/>
+      <c r="AC408" s="2"/>
+      <c r="AD408" s="2"/>
+      <c r="AE408" s="2"/>
+      <c r="AF408" s="2"/>
+      <c r="AG408" s="2"/>
+      <c r="AH408" s="3"/>
+      <c r="AI408" s="2"/>
+      <c r="AJ408" s="2"/>
+      <c r="AK408" s="2"/>
+      <c r="AL408" s="2"/>
+      <c r="AM408" s="3"/>
+      <c r="AN408" s="2"/>
+      <c r="AO408" s="2"/>
+      <c r="AP408" s="2"/>
+      <c r="AQ408" s="2"/>
+      <c r="AR408" s="2"/>
+      <c r="AS408" s="2"/>
     </row>
     <row r="409" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A409" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F409" s="3">
-        <v>1</v>
-      </c>
-      <c r="G409" s="2">
-        <v>0</v>
-      </c>
-      <c r="H409" s="2">
-        <v>0</v>
-      </c>
-      <c r="I409" s="2">
-        <v>0</v>
-      </c>
-      <c r="J409" s="2">
-        <v>0</v>
-      </c>
-      <c r="K409" s="2">
-        <v>0</v>
-      </c>
-      <c r="L409" s="2">
-        <v>0</v>
-      </c>
-      <c r="M409" s="3">
-        <v>1</v>
-      </c>
-      <c r="N409" s="2">
-        <v>0</v>
-      </c>
-      <c r="O409" s="2">
-        <v>0</v>
-      </c>
-      <c r="P409" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q409" s="2">
-        <v>0</v>
-      </c>
-      <c r="R409" s="2">
-        <v>0</v>
-      </c>
-      <c r="S409" s="2">
-        <v>0</v>
-      </c>
-      <c r="T409" s="2">
-        <v>1</v>
-      </c>
-      <c r="U409" s="2">
-        <v>0</v>
-      </c>
-      <c r="V409" s="3">
-        <v>1</v>
-      </c>
-      <c r="W409" s="2">
-        <v>0</v>
-      </c>
-      <c r="X409" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y409" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB409" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH409" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM409" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS409" s="2">
-        <v>0</v>
-      </c>
+      <c r="A409" s="1"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="2"/>
+      <c r="H409" s="2"/>
+      <c r="I409" s="2"/>
+      <c r="J409" s="2"/>
+      <c r="K409" s="2"/>
+      <c r="L409" s="2"/>
+      <c r="M409" s="3"/>
+      <c r="N409" s="2"/>
+      <c r="O409" s="2"/>
+      <c r="P409" s="2"/>
+      <c r="Q409" s="2"/>
+      <c r="R409" s="2"/>
+      <c r="S409" s="2"/>
+      <c r="T409" s="2"/>
+      <c r="U409" s="2"/>
+      <c r="V409" s="3"/>
+      <c r="W409" s="2"/>
+      <c r="X409" s="2"/>
+      <c r="Y409" s="2"/>
+      <c r="Z409" s="2"/>
+      <c r="AA409" s="2"/>
+      <c r="AB409" s="3"/>
+      <c r="AC409" s="2"/>
+      <c r="AD409" s="2"/>
+      <c r="AE409" s="2"/>
+      <c r="AF409" s="2"/>
+      <c r="AG409" s="2"/>
+      <c r="AH409" s="3"/>
+      <c r="AI409" s="2"/>
+      <c r="AJ409" s="2"/>
+      <c r="AK409" s="2"/>
+      <c r="AL409" s="2"/>
+      <c r="AM409" s="3"/>
+      <c r="AN409" s="2"/>
+      <c r="AO409" s="2"/>
+      <c r="AP409" s="2"/>
+      <c r="AQ409" s="2"/>
+      <c r="AR409" s="2"/>
+      <c r="AS409" s="2"/>
     </row>
     <row r="410" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A410" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B410" s="4">
-        <v>100001225</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F410" s="3">
-        <v>2</v>
-      </c>
-      <c r="G410" s="2">
-        <v>0</v>
-      </c>
-      <c r="H410" s="2">
-        <v>0</v>
-      </c>
-      <c r="I410" s="2">
-        <v>0</v>
-      </c>
-      <c r="J410" s="2">
-        <v>0</v>
-      </c>
-      <c r="K410" s="2">
-        <v>0</v>
-      </c>
-      <c r="L410" s="2">
-        <v>0</v>
-      </c>
-      <c r="M410" s="3">
-        <v>2</v>
-      </c>
-      <c r="N410" s="2">
-        <v>0</v>
-      </c>
-      <c r="O410" s="2">
-        <v>0</v>
-      </c>
-      <c r="P410" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q410" s="2">
-        <v>0</v>
-      </c>
-      <c r="R410" s="2">
-        <v>0</v>
-      </c>
-      <c r="S410" s="2">
-        <v>0</v>
-      </c>
-      <c r="T410" s="2">
-        <v>2</v>
-      </c>
-      <c r="U410" s="2">
-        <v>0</v>
-      </c>
-      <c r="V410" s="3">
-        <v>2</v>
-      </c>
-      <c r="W410" s="2">
-        <v>0</v>
-      </c>
-      <c r="X410" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y410" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB410" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH410" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM410" s="3">
-        <v>2</v>
-      </c>
-      <c r="AN410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS410" s="2">
-        <v>0</v>
-      </c>
+      <c r="A410" s="1"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="2"/>
+      <c r="H410" s="2"/>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+      <c r="K410" s="2"/>
+      <c r="L410" s="2"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="2"/>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
+      <c r="Q410" s="2"/>
+      <c r="R410" s="2"/>
+      <c r="S410" s="2"/>
+      <c r="T410" s="2"/>
+      <c r="U410" s="2"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="2"/>
+      <c r="X410" s="2"/>
+      <c r="Y410" s="2"/>
+      <c r="Z410" s="2"/>
+      <c r="AA410" s="2"/>
+      <c r="AB410" s="3"/>
+      <c r="AC410" s="2"/>
+      <c r="AD410" s="2"/>
+      <c r="AE410" s="2"/>
+      <c r="AF410" s="2"/>
+      <c r="AG410" s="2"/>
+      <c r="AH410" s="3"/>
+      <c r="AI410" s="2"/>
+      <c r="AJ410" s="2"/>
+      <c r="AK410" s="2"/>
+      <c r="AL410" s="2"/>
+      <c r="AM410" s="3"/>
+      <c r="AN410" s="2"/>
+      <c r="AO410" s="2"/>
+      <c r="AP410" s="2"/>
+      <c r="AQ410" s="2"/>
+      <c r="AR410" s="2"/>
+      <c r="AS410" s="2"/>
     </row>
     <row r="411" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A411" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B411" s="4">
-        <v>100001250</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E411" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F411" s="3">
-        <v>1</v>
-      </c>
-      <c r="G411" s="2">
-        <v>0</v>
-      </c>
-      <c r="H411" s="2">
-        <v>0</v>
-      </c>
-      <c r="I411" s="2">
-        <v>0</v>
-      </c>
-      <c r="J411" s="2">
-        <v>0</v>
-      </c>
-      <c r="K411" s="2">
-        <v>0</v>
-      </c>
-      <c r="L411" s="2">
-        <v>0</v>
-      </c>
-      <c r="M411" s="3">
-        <v>1</v>
-      </c>
-      <c r="N411" s="2">
-        <v>0</v>
-      </c>
-      <c r="O411" s="2">
-        <v>0</v>
-      </c>
-      <c r="P411" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q411" s="2">
-        <v>0</v>
-      </c>
-      <c r="R411" s="2">
-        <v>0</v>
-      </c>
-      <c r="S411" s="2">
-        <v>0</v>
-      </c>
-      <c r="T411" s="2">
-        <v>1</v>
-      </c>
-      <c r="U411" s="2">
-        <v>0</v>
-      </c>
-      <c r="V411" s="3">
-        <v>1</v>
-      </c>
-      <c r="W411" s="2">
-        <v>0</v>
-      </c>
-      <c r="X411" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y411" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB411" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH411" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM411" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS411" s="2">
-        <v>0</v>
-      </c>
+      <c r="A411" s="1"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="2"/>
+      <c r="H411" s="2"/>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+      <c r="K411" s="2"/>
+      <c r="L411" s="2"/>
+      <c r="M411" s="3"/>
+      <c r="N411" s="2"/>
+      <c r="O411" s="2"/>
+      <c r="P411" s="2"/>
+      <c r="Q411" s="2"/>
+      <c r="R411" s="2"/>
+      <c r="S411" s="2"/>
+      <c r="T411" s="2"/>
+      <c r="U411" s="2"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="2"/>
+      <c r="X411" s="2"/>
+      <c r="Y411" s="2"/>
+      <c r="Z411" s="2"/>
+      <c r="AA411" s="2"/>
+      <c r="AB411" s="3"/>
+      <c r="AC411" s="2"/>
+      <c r="AD411" s="2"/>
+      <c r="AE411" s="2"/>
+      <c r="AF411" s="2"/>
+      <c r="AG411" s="2"/>
+      <c r="AH411" s="3"/>
+      <c r="AI411" s="2"/>
+      <c r="AJ411" s="2"/>
+      <c r="AK411" s="2"/>
+      <c r="AL411" s="2"/>
+      <c r="AM411" s="3"/>
+      <c r="AN411" s="2"/>
+      <c r="AO411" s="2"/>
+      <c r="AP411" s="2"/>
+      <c r="AQ411" s="2"/>
+      <c r="AR411" s="2"/>
+      <c r="AS411" s="2"/>
     </row>
     <row r="412" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A412" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B412" s="4">
-        <v>100001275</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F412" s="3">
-        <v>2</v>
-      </c>
-      <c r="G412" s="2">
-        <v>0</v>
-      </c>
-      <c r="H412" s="2">
-        <v>0</v>
-      </c>
-      <c r="I412" s="2">
-        <v>0</v>
-      </c>
-      <c r="J412" s="2">
-        <v>0</v>
-      </c>
-      <c r="K412" s="2">
-        <v>0</v>
-      </c>
-      <c r="L412" s="2">
-        <v>0</v>
-      </c>
-      <c r="M412" s="3">
-        <v>2</v>
-      </c>
-      <c r="N412" s="2">
-        <v>0</v>
-      </c>
-      <c r="O412" s="2">
-        <v>0</v>
-      </c>
-      <c r="P412" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q412" s="2">
-        <v>0</v>
-      </c>
-      <c r="R412" s="2">
-        <v>0</v>
-      </c>
-      <c r="S412" s="2">
-        <v>0</v>
-      </c>
-      <c r="T412" s="2">
-        <v>2</v>
-      </c>
-      <c r="U412" s="2">
-        <v>0</v>
-      </c>
-      <c r="V412" s="3">
-        <v>2</v>
-      </c>
-      <c r="W412" s="2">
-        <v>0</v>
-      </c>
-      <c r="X412" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y412" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB412" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH412" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM412" s="3">
-        <v>2</v>
-      </c>
-      <c r="AN412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS412" s="2">
-        <v>0</v>
-      </c>
+      <c r="A412" s="1"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="2"/>
+      <c r="H412" s="2"/>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+      <c r="K412" s="2"/>
+      <c r="L412" s="2"/>
+      <c r="M412" s="3"/>
+      <c r="N412" s="2"/>
+      <c r="O412" s="2"/>
+      <c r="P412" s="2"/>
+      <c r="Q412" s="2"/>
+      <c r="R412" s="2"/>
+      <c r="S412" s="2"/>
+      <c r="T412" s="2"/>
+      <c r="U412" s="2"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="2"/>
+      <c r="X412" s="2"/>
+      <c r="Y412" s="2"/>
+      <c r="Z412" s="2"/>
+      <c r="AA412" s="2"/>
+      <c r="AB412" s="3"/>
+      <c r="AC412" s="2"/>
+      <c r="AD412" s="2"/>
+      <c r="AE412" s="2"/>
+      <c r="AF412" s="2"/>
+      <c r="AG412" s="2"/>
+      <c r="AH412" s="3"/>
+      <c r="AI412" s="2"/>
+      <c r="AJ412" s="2"/>
+      <c r="AK412" s="2"/>
+      <c r="AL412" s="2"/>
+      <c r="AM412" s="3"/>
+      <c r="AN412" s="2"/>
+      <c r="AO412" s="2"/>
+      <c r="AP412" s="2"/>
+      <c r="AQ412" s="2"/>
+      <c r="AR412" s="2"/>
+      <c r="AS412" s="2"/>
     </row>
     <row r="413" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A413" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E413" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F413" s="3">
-        <v>6</v>
-      </c>
-      <c r="G413" s="2">
-        <v>0</v>
-      </c>
-      <c r="H413" s="2">
-        <v>0</v>
-      </c>
-      <c r="I413" s="2">
-        <v>0</v>
-      </c>
-      <c r="J413" s="2">
-        <v>0</v>
-      </c>
-      <c r="K413" s="2">
-        <v>0</v>
-      </c>
-      <c r="L413" s="2">
-        <v>0</v>
-      </c>
-      <c r="M413" s="3">
-        <v>6</v>
-      </c>
-      <c r="N413" s="2">
-        <v>0</v>
-      </c>
-      <c r="O413" s="2">
-        <v>0</v>
-      </c>
-      <c r="P413" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q413" s="2">
-        <v>0</v>
-      </c>
-      <c r="R413" s="2">
-        <v>0</v>
-      </c>
-      <c r="S413" s="2">
-        <v>0</v>
-      </c>
-      <c r="T413" s="2">
-        <v>6</v>
-      </c>
-      <c r="U413" s="2">
-        <v>0</v>
-      </c>
-      <c r="V413" s="3">
-        <v>6</v>
-      </c>
-      <c r="W413" s="2">
-        <v>0</v>
-      </c>
-      <c r="X413" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y413" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB413" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH413" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM413" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS413" s="2">
-        <v>0</v>
-      </c>
+      <c r="A413" s="1"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="2"/>
+      <c r="H413" s="2"/>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+      <c r="K413" s="2"/>
+      <c r="L413" s="2"/>
+      <c r="M413" s="3"/>
+      <c r="N413" s="2"/>
+      <c r="O413" s="2"/>
+      <c r="P413" s="2"/>
+      <c r="Q413" s="2"/>
+      <c r="R413" s="2"/>
+      <c r="S413" s="2"/>
+      <c r="T413" s="2"/>
+      <c r="U413" s="2"/>
+      <c r="V413" s="3"/>
+      <c r="W413" s="2"/>
+      <c r="X413" s="2"/>
+      <c r="Y413" s="2"/>
+      <c r="Z413" s="2"/>
+      <c r="AA413" s="2"/>
+      <c r="AB413" s="3"/>
+      <c r="AC413" s="2"/>
+      <c r="AD413" s="2"/>
+      <c r="AE413" s="2"/>
+      <c r="AF413" s="2"/>
+      <c r="AG413" s="2"/>
+      <c r="AH413" s="3"/>
+      <c r="AI413" s="2"/>
+      <c r="AJ413" s="2"/>
+      <c r="AK413" s="2"/>
+      <c r="AL413" s="2"/>
+      <c r="AM413" s="3"/>
+      <c r="AN413" s="2"/>
+      <c r="AO413" s="2"/>
+      <c r="AP413" s="2"/>
+      <c r="AQ413" s="2"/>
+      <c r="AR413" s="2"/>
+      <c r="AS413" s="2"/>
     </row>
     <row r="414" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A414" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B414" s="4">
-        <v>7318</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F414" s="3">
-        <v>0</v>
-      </c>
-      <c r="G414" s="2">
-        <v>0</v>
-      </c>
-      <c r="H414" s="2">
-        <v>0</v>
-      </c>
-      <c r="I414" s="2">
-        <v>0</v>
-      </c>
-      <c r="J414" s="2">
-        <v>0</v>
-      </c>
-      <c r="K414" s="2">
-        <v>0</v>
-      </c>
-      <c r="L414" s="2">
-        <v>0</v>
-      </c>
-      <c r="M414" s="3">
-        <v>0</v>
-      </c>
-      <c r="N414" s="2">
-        <v>0</v>
-      </c>
-      <c r="O414" s="2">
-        <v>0</v>
-      </c>
-      <c r="P414" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q414" s="2">
-        <v>0</v>
-      </c>
-      <c r="R414" s="2">
-        <v>0</v>
-      </c>
-      <c r="S414" s="2">
-        <v>0</v>
-      </c>
-      <c r="T414" s="2">
-        <v>0</v>
-      </c>
-      <c r="U414" s="2">
-        <v>0</v>
-      </c>
-      <c r="V414" s="3">
-        <v>0</v>
-      </c>
-      <c r="W414" s="2">
-        <v>0</v>
-      </c>
-      <c r="X414" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y414" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB414" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH414" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM414" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS414" s="2">
-        <v>0</v>
-      </c>
+      <c r="A414" s="1"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="2"/>
+      <c r="H414" s="2"/>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+      <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="3"/>
+      <c r="N414" s="2"/>
+      <c r="O414" s="2"/>
+      <c r="P414" s="2"/>
+      <c r="Q414" s="2"/>
+      <c r="R414" s="2"/>
+      <c r="S414" s="2"/>
+      <c r="T414" s="2"/>
+      <c r="U414" s="2"/>
+      <c r="V414" s="3"/>
+      <c r="W414" s="2"/>
+      <c r="X414" s="2"/>
+      <c r="Y414" s="2"/>
+      <c r="Z414" s="2"/>
+      <c r="AA414" s="2"/>
+      <c r="AB414" s="3"/>
+      <c r="AC414" s="2"/>
+      <c r="AD414" s="2"/>
+      <c r="AE414" s="2"/>
+      <c r="AF414" s="2"/>
+      <c r="AG414" s="2"/>
+      <c r="AH414" s="3"/>
+      <c r="AI414" s="2"/>
+      <c r="AJ414" s="2"/>
+      <c r="AK414" s="2"/>
+      <c r="AL414" s="2"/>
+      <c r="AM414" s="3"/>
+      <c r="AN414" s="2"/>
+      <c r="AO414" s="2"/>
+      <c r="AP414" s="2"/>
+      <c r="AQ414" s="2"/>
+      <c r="AR414" s="2"/>
+      <c r="AS414" s="2"/>
     </row>
     <row r="415" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A415" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F415" s="3">
-        <v>870</v>
-      </c>
-      <c r="G415" s="2">
-        <v>0</v>
-      </c>
-      <c r="H415" s="2">
-        <v>0</v>
-      </c>
-      <c r="I415" s="2">
-        <v>0</v>
-      </c>
-      <c r="J415" s="2">
-        <v>0</v>
-      </c>
-      <c r="K415" s="2">
-        <v>0</v>
-      </c>
-      <c r="L415" s="2">
-        <v>0</v>
-      </c>
-      <c r="M415" s="3">
-        <v>870</v>
-      </c>
-      <c r="N415" s="2">
-        <v>0</v>
-      </c>
-      <c r="O415" s="2">
-        <v>0</v>
-      </c>
-      <c r="P415" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q415" s="2">
-        <v>0</v>
-      </c>
-      <c r="R415" s="2">
-        <v>0</v>
-      </c>
-      <c r="S415" s="2">
-        <v>0</v>
-      </c>
-      <c r="T415" s="2">
-        <v>870</v>
-      </c>
-      <c r="U415" s="2">
-        <v>0</v>
-      </c>
-      <c r="V415" s="3">
-        <v>870</v>
-      </c>
-      <c r="W415" s="2">
-        <v>0</v>
-      </c>
-      <c r="X415" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y415" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB415" s="3">
-        <v>870</v>
-      </c>
-      <c r="AC415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH415" s="3">
-        <v>870</v>
-      </c>
-      <c r="AI415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM415" s="3">
-        <v>870</v>
-      </c>
-      <c r="AN415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS415" s="2">
-        <v>0</v>
-      </c>
+      <c r="A415" s="1"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+      <c r="K415" s="2"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="3"/>
+      <c r="N415" s="2"/>
+      <c r="O415" s="2"/>
+      <c r="P415" s="2"/>
+      <c r="Q415" s="2"/>
+      <c r="R415" s="2"/>
+      <c r="S415" s="2"/>
+      <c r="T415" s="2"/>
+      <c r="U415" s="2"/>
+      <c r="V415" s="3"/>
+      <c r="W415" s="2"/>
+      <c r="X415" s="2"/>
+      <c r="Y415" s="2"/>
+      <c r="Z415" s="2"/>
+      <c r="AA415" s="2"/>
+      <c r="AB415" s="3"/>
+      <c r="AC415" s="2"/>
+      <c r="AD415" s="2"/>
+      <c r="AE415" s="2"/>
+      <c r="AF415" s="2"/>
+      <c r="AG415" s="2"/>
+      <c r="AH415" s="3"/>
+      <c r="AI415" s="2"/>
+      <c r="AJ415" s="2"/>
+      <c r="AK415" s="2"/>
+      <c r="AL415" s="2"/>
+      <c r="AM415" s="3"/>
+      <c r="AN415" s="2"/>
+      <c r="AO415" s="2"/>
+      <c r="AP415" s="2"/>
+      <c r="AQ415" s="2"/>
+      <c r="AR415" s="2"/>
+      <c r="AS415" s="2"/>
     </row>
     <row r="416" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A416" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F416" s="3">
-        <v>0</v>
-      </c>
-      <c r="G416" s="2">
-        <v>0</v>
-      </c>
-      <c r="H416" s="2">
-        <v>0</v>
-      </c>
-      <c r="I416" s="2">
-        <v>0</v>
-      </c>
-      <c r="J416" s="2">
-        <v>0</v>
-      </c>
-      <c r="K416" s="2">
-        <v>0</v>
-      </c>
-      <c r="L416" s="2">
-        <v>0</v>
-      </c>
-      <c r="M416" s="3">
-        <v>0</v>
-      </c>
-      <c r="N416" s="2">
-        <v>0</v>
-      </c>
-      <c r="O416" s="2">
-        <v>0</v>
-      </c>
-      <c r="P416" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q416" s="2">
-        <v>0</v>
-      </c>
-      <c r="R416" s="2">
-        <v>0</v>
-      </c>
-      <c r="S416" s="2">
-        <v>0</v>
-      </c>
-      <c r="T416" s="2">
-        <v>0</v>
-      </c>
-      <c r="U416" s="2">
-        <v>0</v>
-      </c>
-      <c r="V416" s="3">
-        <v>0</v>
-      </c>
-      <c r="W416" s="2">
-        <v>0</v>
-      </c>
-      <c r="X416" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y416" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB416" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH416" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM416" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS416" s="2">
-        <v>0</v>
-      </c>
+      <c r="A416" s="1"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="3"/>
+      <c r="G416" s="2"/>
+      <c r="H416" s="2"/>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+      <c r="K416" s="2"/>
+      <c r="L416" s="2"/>
+      <c r="M416" s="3"/>
+      <c r="N416" s="2"/>
+      <c r="O416" s="2"/>
+      <c r="P416" s="2"/>
+      <c r="Q416" s="2"/>
+      <c r="R416" s="2"/>
+      <c r="S416" s="2"/>
+      <c r="T416" s="2"/>
+      <c r="U416" s="2"/>
+      <c r="V416" s="3"/>
+      <c r="W416" s="2"/>
+      <c r="X416" s="2"/>
+      <c r="Y416" s="2"/>
+      <c r="Z416" s="2"/>
+      <c r="AA416" s="2"/>
+      <c r="AB416" s="3"/>
+      <c r="AC416" s="2"/>
+      <c r="AD416" s="2"/>
+      <c r="AE416" s="2"/>
+      <c r="AF416" s="2"/>
+      <c r="AG416" s="2"/>
+      <c r="AH416" s="3"/>
+      <c r="AI416" s="2"/>
+      <c r="AJ416" s="2"/>
+      <c r="AK416" s="2"/>
+      <c r="AL416" s="2"/>
+      <c r="AM416" s="3"/>
+      <c r="AN416" s="2"/>
+      <c r="AO416" s="2"/>
+      <c r="AP416" s="2"/>
+      <c r="AQ416" s="2"/>
+      <c r="AR416" s="2"/>
+      <c r="AS416" s="2"/>
     </row>
     <row r="417" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A417" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E417" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F417" s="3">
-        <v>30</v>
-      </c>
-      <c r="G417" s="2">
-        <v>0</v>
-      </c>
-      <c r="H417" s="2">
-        <v>0</v>
-      </c>
-      <c r="I417" s="2">
-        <v>0</v>
-      </c>
-      <c r="J417" s="2">
-        <v>0</v>
-      </c>
-      <c r="K417" s="2">
-        <v>0</v>
-      </c>
-      <c r="L417" s="2">
-        <v>0</v>
-      </c>
-      <c r="M417" s="3">
-        <v>30</v>
-      </c>
-      <c r="N417" s="2">
-        <v>0</v>
-      </c>
-      <c r="O417" s="2">
-        <v>0</v>
-      </c>
-      <c r="P417" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q417" s="2">
-        <v>0</v>
-      </c>
-      <c r="R417" s="2">
-        <v>0</v>
-      </c>
-      <c r="S417" s="2">
-        <v>0</v>
-      </c>
-      <c r="T417" s="2">
-        <v>30</v>
-      </c>
-      <c r="U417" s="2">
-        <v>0</v>
-      </c>
-      <c r="V417" s="3">
-        <v>30</v>
-      </c>
-      <c r="W417" s="2">
-        <v>0</v>
-      </c>
-      <c r="X417" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y417" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB417" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH417" s="3">
-        <v>30</v>
-      </c>
-      <c r="AI417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM417" s="3">
-        <v>30</v>
-      </c>
-      <c r="AN417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS417" s="2">
-        <v>0</v>
-      </c>
+      <c r="A417" s="1"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="2"/>
+      <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
+      <c r="K417" s="2"/>
+      <c r="L417" s="2"/>
+      <c r="M417" s="3"/>
+      <c r="N417" s="2"/>
+      <c r="O417" s="2"/>
+      <c r="P417" s="2"/>
+      <c r="Q417" s="2"/>
+      <c r="R417" s="2"/>
+      <c r="S417" s="2"/>
+      <c r="T417" s="2"/>
+      <c r="U417" s="2"/>
+      <c r="V417" s="3"/>
+      <c r="W417" s="2"/>
+      <c r="X417" s="2"/>
+      <c r="Y417" s="2"/>
+      <c r="Z417" s="2"/>
+      <c r="AA417" s="2"/>
+      <c r="AB417" s="3"/>
+      <c r="AC417" s="2"/>
+      <c r="AD417" s="2"/>
+      <c r="AE417" s="2"/>
+      <c r="AF417" s="2"/>
+      <c r="AG417" s="2"/>
+      <c r="AH417" s="3"/>
+      <c r="AI417" s="2"/>
+      <c r="AJ417" s="2"/>
+      <c r="AK417" s="2"/>
+      <c r="AL417" s="2"/>
+      <c r="AM417" s="3"/>
+      <c r="AN417" s="2"/>
+      <c r="AO417" s="2"/>
+      <c r="AP417" s="2"/>
+      <c r="AQ417" s="2"/>
+      <c r="AR417" s="2"/>
+      <c r="AS417" s="2"/>
     </row>
     <row r="418" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A418" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F418" s="3">
-        <v>175</v>
-      </c>
-      <c r="G418" s="2">
-        <v>0</v>
-      </c>
-      <c r="H418" s="2">
-        <v>0</v>
-      </c>
-      <c r="I418" s="2">
-        <v>0</v>
-      </c>
-      <c r="J418" s="2">
-        <v>0</v>
-      </c>
-      <c r="K418" s="2">
-        <v>0</v>
-      </c>
-      <c r="L418" s="2">
-        <v>0</v>
-      </c>
-      <c r="M418" s="3">
-        <v>175</v>
-      </c>
-      <c r="N418" s="2">
-        <v>0</v>
-      </c>
-      <c r="O418" s="2">
-        <v>0</v>
-      </c>
-      <c r="P418" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q418" s="2">
-        <v>0</v>
-      </c>
-      <c r="R418" s="2">
-        <v>0</v>
-      </c>
-      <c r="S418" s="2">
-        <v>0</v>
-      </c>
-      <c r="T418" s="2">
-        <v>175</v>
-      </c>
-      <c r="U418" s="2">
-        <v>0</v>
-      </c>
-      <c r="V418" s="3">
-        <v>175</v>
-      </c>
-      <c r="W418" s="2">
-        <v>0</v>
-      </c>
-      <c r="X418" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y418" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB418" s="3">
-        <v>175</v>
-      </c>
-      <c r="AC418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH418" s="3">
-        <v>175</v>
-      </c>
-      <c r="AI418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM418" s="3">
-        <v>175</v>
-      </c>
-      <c r="AN418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS418" s="2">
-        <v>0</v>
-      </c>
+      <c r="A418" s="1"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="3"/>
+      <c r="G418" s="2"/>
+      <c r="H418" s="2"/>
+      <c r="I418" s="2"/>
+      <c r="J418" s="2"/>
+      <c r="K418" s="2"/>
+      <c r="L418" s="2"/>
+      <c r="M418" s="3"/>
+      <c r="N418" s="2"/>
+      <c r="O418" s="2"/>
+      <c r="P418" s="2"/>
+      <c r="Q418" s="2"/>
+      <c r="R418" s="2"/>
+      <c r="S418" s="2"/>
+      <c r="T418" s="2"/>
+      <c r="U418" s="2"/>
+      <c r="V418" s="3"/>
+      <c r="W418" s="2"/>
+      <c r="X418" s="2"/>
+      <c r="Y418" s="2"/>
+      <c r="Z418" s="2"/>
+      <c r="AA418" s="2"/>
+      <c r="AB418" s="3"/>
+      <c r="AC418" s="2"/>
+      <c r="AD418" s="2"/>
+      <c r="AE418" s="2"/>
+      <c r="AF418" s="2"/>
+      <c r="AG418" s="2"/>
+      <c r="AH418" s="3"/>
+      <c r="AI418" s="2"/>
+      <c r="AJ418" s="2"/>
+      <c r="AK418" s="2"/>
+      <c r="AL418" s="2"/>
+      <c r="AM418" s="3"/>
+      <c r="AN418" s="2"/>
+      <c r="AO418" s="2"/>
+      <c r="AP418" s="2"/>
+      <c r="AQ418" s="2"/>
+      <c r="AR418" s="2"/>
+      <c r="AS418" s="2"/>
     </row>
     <row r="419" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A419" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E419" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F419" s="3">
-        <v>0</v>
-      </c>
-      <c r="G419" s="2">
-        <v>0</v>
-      </c>
-      <c r="H419" s="2">
-        <v>0</v>
-      </c>
-      <c r="I419" s="2">
-        <v>0</v>
-      </c>
-      <c r="J419" s="2">
-        <v>0</v>
-      </c>
-      <c r="K419" s="2">
-        <v>0</v>
-      </c>
-      <c r="L419" s="2">
-        <v>0</v>
-      </c>
-      <c r="M419" s="3">
-        <v>0</v>
-      </c>
-      <c r="N419" s="2">
-        <v>0</v>
-      </c>
-      <c r="O419" s="2">
-        <v>0</v>
-      </c>
-      <c r="P419" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q419" s="2">
-        <v>0</v>
-      </c>
-      <c r="R419" s="2">
-        <v>0</v>
-      </c>
-      <c r="S419" s="2">
-        <v>0</v>
-      </c>
-      <c r="T419" s="2">
-        <v>0</v>
-      </c>
-      <c r="U419" s="2">
-        <v>0</v>
-      </c>
-      <c r="V419" s="3">
-        <v>0</v>
-      </c>
-      <c r="W419" s="2">
-        <v>0</v>
-      </c>
-      <c r="X419" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y419" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB419" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH419" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM419" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS419" s="2">
-        <v>0</v>
-      </c>
+      <c r="A419" s="1"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="3"/>
+      <c r="G419" s="2"/>
+      <c r="H419" s="2"/>
+      <c r="I419" s="2"/>
+      <c r="J419" s="2"/>
+      <c r="K419" s="2"/>
+      <c r="L419" s="2"/>
+      <c r="M419" s="3"/>
+      <c r="N419" s="2"/>
+      <c r="O419" s="2"/>
+      <c r="P419" s="2"/>
+      <c r="Q419" s="2"/>
+      <c r="R419" s="2"/>
+      <c r="S419" s="2"/>
+      <c r="T419" s="2"/>
+      <c r="U419" s="2"/>
+      <c r="V419" s="3"/>
+      <c r="W419" s="2"/>
+      <c r="X419" s="2"/>
+      <c r="Y419" s="2"/>
+      <c r="Z419" s="2"/>
+      <c r="AA419" s="2"/>
+      <c r="AB419" s="3"/>
+      <c r="AC419" s="2"/>
+      <c r="AD419" s="2"/>
+      <c r="AE419" s="2"/>
+      <c r="AF419" s="2"/>
+      <c r="AG419" s="2"/>
+      <c r="AH419" s="3"/>
+      <c r="AI419" s="2"/>
+      <c r="AJ419" s="2"/>
+      <c r="AK419" s="2"/>
+      <c r="AL419" s="2"/>
+      <c r="AM419" s="3"/>
+      <c r="AN419" s="2"/>
+      <c r="AO419" s="2"/>
+      <c r="AP419" s="2"/>
+      <c r="AQ419" s="2"/>
+      <c r="AR419" s="2"/>
+      <c r="AS419" s="2"/>
     </row>
     <row r="420" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A420" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E420" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F420" s="3">
-        <v>0</v>
-      </c>
-      <c r="G420" s="2">
-        <v>0</v>
-      </c>
-      <c r="H420" s="2">
-        <v>0</v>
-      </c>
-      <c r="I420" s="2">
-        <v>0</v>
-      </c>
-      <c r="J420" s="2">
-        <v>0</v>
-      </c>
-      <c r="K420" s="2">
-        <v>0</v>
-      </c>
-      <c r="L420" s="2">
-        <v>0</v>
-      </c>
-      <c r="M420" s="3">
-        <v>0</v>
-      </c>
-      <c r="N420" s="2">
-        <v>0</v>
-      </c>
-      <c r="O420" s="2">
-        <v>0</v>
-      </c>
-      <c r="P420" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q420" s="2">
-        <v>0</v>
-      </c>
-      <c r="R420" s="2">
-        <v>0</v>
-      </c>
-      <c r="S420" s="2">
-        <v>0</v>
-      </c>
-      <c r="T420" s="2">
-        <v>0</v>
-      </c>
-      <c r="U420" s="2">
-        <v>0</v>
-      </c>
-      <c r="V420" s="3">
-        <v>0</v>
-      </c>
-      <c r="W420" s="2">
-        <v>0</v>
-      </c>
-      <c r="X420" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y420" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB420" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH420" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM420" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS420" s="2">
-        <v>0</v>
-      </c>
+      <c r="A420" s="1"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="2"/>
+      <c r="H420" s="2"/>
+      <c r="I420" s="2"/>
+      <c r="J420" s="2"/>
+      <c r="K420" s="2"/>
+      <c r="L420" s="2"/>
+      <c r="M420" s="3"/>
+      <c r="N420" s="2"/>
+      <c r="O420" s="2"/>
+      <c r="P420" s="2"/>
+      <c r="Q420" s="2"/>
+      <c r="R420" s="2"/>
+      <c r="S420" s="2"/>
+      <c r="T420" s="2"/>
+      <c r="U420" s="2"/>
+      <c r="V420" s="3"/>
+      <c r="W420" s="2"/>
+      <c r="X420" s="2"/>
+      <c r="Y420" s="2"/>
+      <c r="Z420" s="2"/>
+      <c r="AA420" s="2"/>
+      <c r="AB420" s="3"/>
+      <c r="AC420" s="2"/>
+      <c r="AD420" s="2"/>
+      <c r="AE420" s="2"/>
+      <c r="AF420" s="2"/>
+      <c r="AG420" s="2"/>
+      <c r="AH420" s="3"/>
+      <c r="AI420" s="2"/>
+      <c r="AJ420" s="2"/>
+      <c r="AK420" s="2"/>
+      <c r="AL420" s="2"/>
+      <c r="AM420" s="3"/>
+      <c r="AN420" s="2"/>
+      <c r="AO420" s="2"/>
+      <c r="AP420" s="2"/>
+      <c r="AQ420" s="2"/>
+      <c r="AR420" s="2"/>
+      <c r="AS420" s="2"/>
     </row>
     <row r="421" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A421" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E421" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F421" s="3">
-        <v>83</v>
-      </c>
-      <c r="G421" s="2">
-        <v>0</v>
-      </c>
-      <c r="H421" s="2">
-        <v>0</v>
-      </c>
-      <c r="I421" s="2">
-        <v>0</v>
-      </c>
-      <c r="J421" s="2">
-        <v>0</v>
-      </c>
-      <c r="K421" s="2">
-        <v>0</v>
-      </c>
-      <c r="L421" s="2">
-        <v>0</v>
-      </c>
-      <c r="M421" s="3">
-        <v>83</v>
-      </c>
-      <c r="N421" s="2">
-        <v>0</v>
-      </c>
-      <c r="O421" s="2">
-        <v>0</v>
-      </c>
-      <c r="P421" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q421" s="2">
-        <v>0</v>
-      </c>
-      <c r="R421" s="2">
-        <v>0</v>
-      </c>
-      <c r="S421" s="2">
-        <v>0</v>
-      </c>
-      <c r="T421" s="2">
-        <v>83</v>
-      </c>
-      <c r="U421" s="2">
-        <v>0</v>
-      </c>
-      <c r="V421" s="3">
-        <v>83</v>
-      </c>
-      <c r="W421" s="2">
-        <v>0</v>
-      </c>
-      <c r="X421" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y421" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB421" s="3">
-        <v>83</v>
-      </c>
-      <c r="AC421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH421" s="3">
-        <v>83</v>
-      </c>
-      <c r="AI421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM421" s="3">
-        <v>83</v>
-      </c>
-      <c r="AN421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS421" s="2">
-        <v>0</v>
-      </c>
+      <c r="A421" s="1"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="3"/>
+      <c r="G421" s="2"/>
+      <c r="H421" s="2"/>
+      <c r="I421" s="2"/>
+      <c r="J421" s="2"/>
+      <c r="K421" s="2"/>
+      <c r="L421" s="2"/>
+      <c r="M421" s="3"/>
+      <c r="N421" s="2"/>
+      <c r="O421" s="2"/>
+      <c r="P421" s="2"/>
+      <c r="Q421" s="2"/>
+      <c r="R421" s="2"/>
+      <c r="S421" s="2"/>
+      <c r="T421" s="2"/>
+      <c r="U421" s="2"/>
+      <c r="V421" s="3"/>
+      <c r="W421" s="2"/>
+      <c r="X421" s="2"/>
+      <c r="Y421" s="2"/>
+      <c r="Z421" s="2"/>
+      <c r="AA421" s="2"/>
+      <c r="AB421" s="3"/>
+      <c r="AC421" s="2"/>
+      <c r="AD421" s="2"/>
+      <c r="AE421" s="2"/>
+      <c r="AF421" s="2"/>
+      <c r="AG421" s="2"/>
+      <c r="AH421" s="3"/>
+      <c r="AI421" s="2"/>
+      <c r="AJ421" s="2"/>
+      <c r="AK421" s="2"/>
+      <c r="AL421" s="2"/>
+      <c r="AM421" s="3"/>
+      <c r="AN421" s="2"/>
+      <c r="AO421" s="2"/>
+      <c r="AP421" s="2"/>
+      <c r="AQ421" s="2"/>
+      <c r="AR421" s="2"/>
+      <c r="AS421" s="2"/>
     </row>
     <row r="422" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A422" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B422" s="4">
-        <v>549010</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F422" s="3">
-        <v>0</v>
-      </c>
-      <c r="G422" s="2">
-        <v>0</v>
-      </c>
-      <c r="H422" s="2">
-        <v>0</v>
-      </c>
-      <c r="I422" s="2">
-        <v>0</v>
-      </c>
-      <c r="J422" s="2">
-        <v>0</v>
-      </c>
-      <c r="K422" s="2">
-        <v>0</v>
-      </c>
-      <c r="L422" s="2">
-        <v>0</v>
-      </c>
-      <c r="M422" s="3">
-        <v>0</v>
-      </c>
-      <c r="N422" s="2">
-        <v>0</v>
-      </c>
-      <c r="O422" s="2">
-        <v>0</v>
-      </c>
-      <c r="P422" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q422" s="2">
-        <v>0</v>
-      </c>
-      <c r="R422" s="2">
-        <v>0</v>
-      </c>
-      <c r="S422" s="2">
-        <v>0</v>
-      </c>
-      <c r="T422" s="2">
-        <v>0</v>
-      </c>
-      <c r="U422" s="2">
-        <v>0</v>
-      </c>
-      <c r="V422" s="3">
-        <v>0</v>
-      </c>
-      <c r="W422" s="2">
-        <v>0</v>
-      </c>
-      <c r="X422" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y422" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB422" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH422" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM422" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS422" s="2">
-        <v>0</v>
-      </c>
+      <c r="A422" s="1"/>
+      <c r="B422" s="4"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="3"/>
+      <c r="G422" s="2"/>
+      <c r="H422" s="2"/>
+      <c r="I422" s="2"/>
+      <c r="J422" s="2"/>
+      <c r="K422" s="2"/>
+      <c r="L422" s="2"/>
+      <c r="M422" s="3"/>
+      <c r="N422" s="2"/>
+      <c r="O422" s="2"/>
+      <c r="P422" s="2"/>
+      <c r="Q422" s="2"/>
+      <c r="R422" s="2"/>
+      <c r="S422" s="2"/>
+      <c r="T422" s="2"/>
+      <c r="U422" s="2"/>
+      <c r="V422" s="3"/>
+      <c r="W422" s="2"/>
+      <c r="X422" s="2"/>
+      <c r="Y422" s="2"/>
+      <c r="Z422" s="2"/>
+      <c r="AA422" s="2"/>
+      <c r="AB422" s="3"/>
+      <c r="AC422" s="2"/>
+      <c r="AD422" s="2"/>
+      <c r="AE422" s="2"/>
+      <c r="AF422" s="2"/>
+      <c r="AG422" s="2"/>
+      <c r="AH422" s="3"/>
+      <c r="AI422" s="2"/>
+      <c r="AJ422" s="2"/>
+      <c r="AK422" s="2"/>
+      <c r="AL422" s="2"/>
+      <c r="AM422" s="3"/>
+      <c r="AN422" s="2"/>
+      <c r="AO422" s="2"/>
+      <c r="AP422" s="2"/>
+      <c r="AQ422" s="2"/>
+      <c r="AR422" s="2"/>
+      <c r="AS422" s="2"/>
     </row>
     <row r="423" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A423" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E423" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F423" s="3">
-        <v>0</v>
-      </c>
-      <c r="G423" s="2">
-        <v>0</v>
-      </c>
-      <c r="H423" s="2">
-        <v>0</v>
-      </c>
-      <c r="I423" s="2">
-        <v>0</v>
-      </c>
-      <c r="J423" s="2">
-        <v>0</v>
-      </c>
-      <c r="K423" s="2">
-        <v>0</v>
-      </c>
-      <c r="L423" s="2">
-        <v>0</v>
-      </c>
-      <c r="M423" s="3">
-        <v>0</v>
-      </c>
-      <c r="N423" s="2">
-        <v>0</v>
-      </c>
-      <c r="O423" s="2">
-        <v>0</v>
-      </c>
-      <c r="P423" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q423" s="2">
-        <v>0</v>
-      </c>
-      <c r="R423" s="2">
-        <v>0</v>
-      </c>
-      <c r="S423" s="2">
-        <v>0</v>
-      </c>
-      <c r="T423" s="2">
-        <v>0</v>
-      </c>
-      <c r="U423" s="2">
-        <v>0</v>
-      </c>
-      <c r="V423" s="3">
-        <v>0</v>
-      </c>
-      <c r="W423" s="2">
-        <v>0</v>
-      </c>
-      <c r="X423" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y423" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB423" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH423" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM423" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS423" s="2">
-        <v>0</v>
-      </c>
+      <c r="A423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="3"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
+      <c r="J423" s="2"/>
+      <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="3"/>
+      <c r="N423" s="2"/>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
+      <c r="Q423" s="2"/>
+      <c r="R423" s="2"/>
+      <c r="S423" s="2"/>
+      <c r="T423" s="2"/>
+      <c r="U423" s="2"/>
+      <c r="V423" s="3"/>
+      <c r="W423" s="2"/>
+      <c r="X423" s="2"/>
+      <c r="Y423" s="2"/>
+      <c r="Z423" s="2"/>
+      <c r="AA423" s="2"/>
+      <c r="AB423" s="3"/>
+      <c r="AC423" s="2"/>
+      <c r="AD423" s="2"/>
+      <c r="AE423" s="2"/>
+      <c r="AF423" s="2"/>
+      <c r="AG423" s="2"/>
+      <c r="AH423" s="3"/>
+      <c r="AI423" s="2"/>
+      <c r="AJ423" s="2"/>
+      <c r="AK423" s="2"/>
+      <c r="AL423" s="2"/>
+      <c r="AM423" s="3"/>
+      <c r="AN423" s="2"/>
+      <c r="AO423" s="2"/>
+      <c r="AP423" s="2"/>
+      <c r="AQ423" s="2"/>
+      <c r="AR423" s="2"/>
+      <c r="AS423" s="2"/>
     </row>
     <row r="424" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A424" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B424" s="4">
-        <v>26011</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E424" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F424" s="3">
-        <v>1</v>
-      </c>
-      <c r="G424" s="2">
-        <v>0</v>
-      </c>
-      <c r="H424" s="2">
-        <v>0</v>
-      </c>
-      <c r="I424" s="2">
-        <v>0</v>
-      </c>
-      <c r="J424" s="2">
-        <v>0</v>
-      </c>
-      <c r="K424" s="2">
-        <v>0</v>
-      </c>
-      <c r="L424" s="2">
-        <v>0</v>
-      </c>
-      <c r="M424" s="3">
-        <v>1</v>
-      </c>
-      <c r="N424" s="2">
-        <v>0</v>
-      </c>
-      <c r="O424" s="2">
-        <v>0</v>
-      </c>
-      <c r="P424" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q424" s="2">
-        <v>0</v>
-      </c>
-      <c r="R424" s="2">
-        <v>0</v>
-      </c>
-      <c r="S424" s="2">
-        <v>0</v>
-      </c>
-      <c r="T424" s="2">
-        <v>1</v>
-      </c>
-      <c r="U424" s="2">
-        <v>0</v>
-      </c>
-      <c r="V424" s="3">
-        <v>1</v>
-      </c>
-      <c r="W424" s="2">
-        <v>0</v>
-      </c>
-      <c r="X424" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y424" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB424" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH424" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM424" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS424" s="2">
-        <v>0</v>
-      </c>
+      <c r="A424" s="1"/>
+      <c r="B424" s="4"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="2"/>
+      <c r="H424" s="2"/>
+      <c r="I424" s="2"/>
+      <c r="J424" s="2"/>
+      <c r="K424" s="2"/>
+      <c r="L424" s="2"/>
+      <c r="M424" s="3"/>
+      <c r="N424" s="2"/>
+      <c r="O424" s="2"/>
+      <c r="P424" s="2"/>
+      <c r="Q424" s="2"/>
+      <c r="R424" s="2"/>
+      <c r="S424" s="2"/>
+      <c r="T424" s="2"/>
+      <c r="U424" s="2"/>
+      <c r="V424" s="3"/>
+      <c r="W424" s="2"/>
+      <c r="X424" s="2"/>
+      <c r="Y424" s="2"/>
+      <c r="Z424" s="2"/>
+      <c r="AA424" s="2"/>
+      <c r="AB424" s="3"/>
+      <c r="AC424" s="2"/>
+      <c r="AD424" s="2"/>
+      <c r="AE424" s="2"/>
+      <c r="AF424" s="2"/>
+      <c r="AG424" s="2"/>
+      <c r="AH424" s="3"/>
+      <c r="AI424" s="2"/>
+      <c r="AJ424" s="2"/>
+      <c r="AK424" s="2"/>
+      <c r="AL424" s="2"/>
+      <c r="AM424" s="3"/>
+      <c r="AN424" s="2"/>
+      <c r="AO424" s="2"/>
+      <c r="AP424" s="2"/>
+      <c r="AQ424" s="2"/>
+      <c r="AR424" s="2"/>
+      <c r="AS424" s="2"/>
     </row>
     <row r="425" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A425" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F425" s="3">
-        <v>0</v>
-      </c>
-      <c r="G425" s="2">
-        <v>0</v>
-      </c>
-      <c r="H425" s="2">
-        <v>0</v>
-      </c>
-      <c r="I425" s="2">
-        <v>0</v>
-      </c>
-      <c r="J425" s="2">
-        <v>0</v>
-      </c>
-      <c r="K425" s="2">
-        <v>0</v>
-      </c>
-      <c r="L425" s="2">
-        <v>0</v>
-      </c>
-      <c r="M425" s="3">
-        <v>0</v>
-      </c>
-      <c r="N425" s="2">
-        <v>0</v>
-      </c>
-      <c r="O425" s="2">
-        <v>0</v>
-      </c>
-      <c r="P425" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q425" s="2">
-        <v>0</v>
-      </c>
-      <c r="R425" s="2">
-        <v>0</v>
-      </c>
-      <c r="S425" s="2">
-        <v>0</v>
-      </c>
-      <c r="T425" s="2">
-        <v>0</v>
-      </c>
-      <c r="U425" s="2">
-        <v>0</v>
-      </c>
-      <c r="V425" s="3">
-        <v>0</v>
-      </c>
-      <c r="W425" s="2">
-        <v>0</v>
-      </c>
-      <c r="X425" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y425" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB425" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH425" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM425" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS425" s="2">
-        <v>0</v>
-      </c>
+      <c r="A425" s="1"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="2"/>
+      <c r="H425" s="2"/>
+      <c r="I425" s="2"/>
+      <c r="J425" s="2"/>
+      <c r="K425" s="2"/>
+      <c r="L425" s="2"/>
+      <c r="M425" s="3"/>
+      <c r="N425" s="2"/>
+      <c r="O425" s="2"/>
+      <c r="P425" s="2"/>
+      <c r="Q425" s="2"/>
+      <c r="R425" s="2"/>
+      <c r="S425" s="2"/>
+      <c r="T425" s="2"/>
+      <c r="U425" s="2"/>
+      <c r="V425" s="3"/>
+      <c r="W425" s="2"/>
+      <c r="X425" s="2"/>
+      <c r="Y425" s="2"/>
+      <c r="Z425" s="2"/>
+      <c r="AA425" s="2"/>
+      <c r="AB425" s="3"/>
+      <c r="AC425" s="2"/>
+      <c r="AD425" s="2"/>
+      <c r="AE425" s="2"/>
+      <c r="AF425" s="2"/>
+      <c r="AG425" s="2"/>
+      <c r="AH425" s="3"/>
+      <c r="AI425" s="2"/>
+      <c r="AJ425" s="2"/>
+      <c r="AK425" s="2"/>
+      <c r="AL425" s="2"/>
+      <c r="AM425" s="3"/>
+      <c r="AN425" s="2"/>
+      <c r="AO425" s="2"/>
+      <c r="AP425" s="2"/>
+      <c r="AQ425" s="2"/>
+      <c r="AR425" s="2"/>
+      <c r="AS425" s="2"/>
     </row>
     <row r="426" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A426" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B426" s="4">
-        <v>26013</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E426" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F426" s="3">
-        <v>0</v>
-      </c>
-      <c r="G426" s="2">
-        <v>0</v>
-      </c>
-      <c r="H426" s="2">
-        <v>0</v>
-      </c>
-      <c r="I426" s="2">
-        <v>0</v>
-      </c>
-      <c r="J426" s="2">
-        <v>0</v>
-      </c>
-      <c r="K426" s="2">
-        <v>0</v>
-      </c>
-      <c r="L426" s="2">
-        <v>0</v>
-      </c>
-      <c r="M426" s="3">
-        <v>0</v>
-      </c>
-      <c r="N426" s="2">
-        <v>0</v>
-      </c>
-      <c r="O426" s="2">
-        <v>0</v>
-      </c>
-      <c r="P426" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q426" s="2">
-        <v>0</v>
-      </c>
-      <c r="R426" s="2">
-        <v>0</v>
-      </c>
-      <c r="S426" s="2">
-        <v>0</v>
-      </c>
-      <c r="T426" s="2">
-        <v>0</v>
-      </c>
-      <c r="U426" s="2">
-        <v>0</v>
-      </c>
-      <c r="V426" s="3">
-        <v>0</v>
-      </c>
-      <c r="W426" s="2">
-        <v>0</v>
-      </c>
-      <c r="X426" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y426" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB426" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH426" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM426" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS426" s="2">
-        <v>0</v>
-      </c>
+      <c r="A426" s="1"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="2"/>
+      <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
+      <c r="J426" s="2"/>
+      <c r="K426" s="2"/>
+      <c r="L426" s="2"/>
+      <c r="M426" s="3"/>
+      <c r="N426" s="2"/>
+      <c r="O426" s="2"/>
+      <c r="P426" s="2"/>
+      <c r="Q426" s="2"/>
+      <c r="R426" s="2"/>
+      <c r="S426" s="2"/>
+      <c r="T426" s="2"/>
+      <c r="U426" s="2"/>
+      <c r="V426" s="3"/>
+      <c r="W426" s="2"/>
+      <c r="X426" s="2"/>
+      <c r="Y426" s="2"/>
+      <c r="Z426" s="2"/>
+      <c r="AA426" s="2"/>
+      <c r="AB426" s="3"/>
+      <c r="AC426" s="2"/>
+      <c r="AD426" s="2"/>
+      <c r="AE426" s="2"/>
+      <c r="AF426" s="2"/>
+      <c r="AG426" s="2"/>
+      <c r="AH426" s="3"/>
+      <c r="AI426" s="2"/>
+      <c r="AJ426" s="2"/>
+      <c r="AK426" s="2"/>
+      <c r="AL426" s="2"/>
+      <c r="AM426" s="3"/>
+      <c r="AN426" s="2"/>
+      <c r="AO426" s="2"/>
+      <c r="AP426" s="2"/>
+      <c r="AQ426" s="2"/>
+      <c r="AR426" s="2"/>
+      <c r="AS426" s="2"/>
     </row>
     <row r="427" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A427" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B427" s="4">
-        <v>26015</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F427" s="3">
-        <v>0</v>
-      </c>
-      <c r="G427" s="2">
-        <v>0</v>
-      </c>
-      <c r="H427" s="2">
-        <v>0</v>
-      </c>
-      <c r="I427" s="2">
-        <v>0</v>
-      </c>
-      <c r="J427" s="2">
-        <v>0</v>
-      </c>
-      <c r="K427" s="2">
-        <v>0</v>
-      </c>
-      <c r="L427" s="2">
-        <v>0</v>
-      </c>
-      <c r="M427" s="3">
-        <v>0</v>
-      </c>
-      <c r="N427" s="2">
-        <v>0</v>
-      </c>
-      <c r="O427" s="2">
-        <v>0</v>
-      </c>
-      <c r="P427" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q427" s="2">
-        <v>0</v>
-      </c>
-      <c r="R427" s="2">
-        <v>0</v>
-      </c>
-      <c r="S427" s="2">
-        <v>0</v>
-      </c>
-      <c r="T427" s="2">
-        <v>0</v>
-      </c>
-      <c r="U427" s="2">
-        <v>0</v>
-      </c>
-      <c r="V427" s="3">
-        <v>0</v>
-      </c>
-      <c r="W427" s="2">
-        <v>0</v>
-      </c>
-      <c r="X427" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y427" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB427" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH427" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM427" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS427" s="2">
-        <v>0</v>
-      </c>
+      <c r="A427" s="1"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="3"/>
+      <c r="G427" s="2"/>
+      <c r="H427" s="2"/>
+      <c r="I427" s="2"/>
+      <c r="J427" s="2"/>
+      <c r="K427" s="2"/>
+      <c r="L427" s="2"/>
+      <c r="M427" s="3"/>
+      <c r="N427" s="2"/>
+      <c r="O427" s="2"/>
+      <c r="P427" s="2"/>
+      <c r="Q427" s="2"/>
+      <c r="R427" s="2"/>
+      <c r="S427" s="2"/>
+      <c r="T427" s="2"/>
+      <c r="U427" s="2"/>
+      <c r="V427" s="3"/>
+      <c r="W427" s="2"/>
+      <c r="X427" s="2"/>
+      <c r="Y427" s="2"/>
+      <c r="Z427" s="2"/>
+      <c r="AA427" s="2"/>
+      <c r="AB427" s="3"/>
+      <c r="AC427" s="2"/>
+      <c r="AD427" s="2"/>
+      <c r="AE427" s="2"/>
+      <c r="AF427" s="2"/>
+      <c r="AG427" s="2"/>
+      <c r="AH427" s="3"/>
+      <c r="AI427" s="2"/>
+      <c r="AJ427" s="2"/>
+      <c r="AK427" s="2"/>
+      <c r="AL427" s="2"/>
+      <c r="AM427" s="3"/>
+      <c r="AN427" s="2"/>
+      <c r="AO427" s="2"/>
+      <c r="AP427" s="2"/>
+      <c r="AQ427" s="2"/>
+      <c r="AR427" s="2"/>
+      <c r="AS427" s="2"/>
     </row>
     <row r="428" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A428" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="F428" s="3">
-        <v>0</v>
-      </c>
-      <c r="G428" s="2">
-        <v>0</v>
-      </c>
-      <c r="H428" s="2">
-        <v>0</v>
-      </c>
-      <c r="I428" s="2">
-        <v>0</v>
-      </c>
-      <c r="J428" s="2">
-        <v>0</v>
-      </c>
-      <c r="K428" s="2">
-        <v>0</v>
-      </c>
-      <c r="L428" s="2">
-        <v>0</v>
-      </c>
-      <c r="M428" s="3">
-        <v>0</v>
-      </c>
-      <c r="N428" s="2">
-        <v>0</v>
-      </c>
-      <c r="O428" s="2">
-        <v>0</v>
-      </c>
-      <c r="P428" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q428" s="2">
-        <v>0</v>
-      </c>
-      <c r="R428" s="2">
-        <v>0</v>
-      </c>
-      <c r="S428" s="2">
-        <v>0</v>
-      </c>
-      <c r="T428" s="2">
-        <v>0</v>
-      </c>
-      <c r="U428" s="2">
-        <v>0</v>
-      </c>
-      <c r="V428" s="3">
-        <v>0</v>
-      </c>
-      <c r="W428" s="2">
-        <v>0</v>
-      </c>
-      <c r="X428" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y428" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB428" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH428" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM428" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS428" s="2">
-        <v>0</v>
-      </c>
+      <c r="A428" s="1"/>
+      <c r="B428" s="2"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="2"/>
+      <c r="H428" s="2"/>
+      <c r="I428" s="2"/>
+      <c r="J428" s="2"/>
+      <c r="K428" s="2"/>
+      <c r="L428" s="2"/>
+      <c r="M428" s="3"/>
+      <c r="N428" s="2"/>
+      <c r="O428" s="2"/>
+      <c r="P428" s="2"/>
+      <c r="Q428" s="2"/>
+      <c r="R428" s="2"/>
+      <c r="S428" s="2"/>
+      <c r="T428" s="2"/>
+      <c r="U428" s="2"/>
+      <c r="V428" s="3"/>
+      <c r="W428" s="2"/>
+      <c r="X428" s="2"/>
+      <c r="Y428" s="2"/>
+      <c r="Z428" s="2"/>
+      <c r="AA428" s="2"/>
+      <c r="AB428" s="3"/>
+      <c r="AC428" s="2"/>
+      <c r="AD428" s="2"/>
+      <c r="AE428" s="2"/>
+      <c r="AF428" s="2"/>
+      <c r="AG428" s="2"/>
+      <c r="AH428" s="3"/>
+      <c r="AI428" s="2"/>
+      <c r="AJ428" s="2"/>
+      <c r="AK428" s="2"/>
+      <c r="AL428" s="2"/>
+      <c r="AM428" s="3"/>
+      <c r="AN428" s="2"/>
+      <c r="AO428" s="2"/>
+      <c r="AP428" s="2"/>
+      <c r="AQ428" s="2"/>
+      <c r="AR428" s="2"/>
+      <c r="AS428" s="2"/>
     </row>
     <row r="429" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A429" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B429" s="4">
-        <v>942</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F429" s="3">
-        <v>1</v>
-      </c>
-      <c r="G429" s="2">
-        <v>0</v>
-      </c>
-      <c r="H429" s="2">
-        <v>0</v>
-      </c>
-      <c r="I429" s="2">
-        <v>0</v>
-      </c>
-      <c r="J429" s="2">
-        <v>0</v>
-      </c>
-      <c r="K429" s="2">
-        <v>0</v>
-      </c>
-      <c r="L429" s="2">
-        <v>0</v>
-      </c>
-      <c r="M429" s="3">
-        <v>1</v>
-      </c>
-      <c r="N429" s="2">
-        <v>0</v>
-      </c>
-      <c r="O429" s="2">
-        <v>0</v>
-      </c>
-      <c r="P429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q429" s="2">
-        <v>0</v>
-      </c>
-      <c r="R429" s="2">
-        <v>0</v>
-      </c>
-      <c r="S429" s="2">
-        <v>0</v>
-      </c>
-      <c r="T429" s="2">
-        <v>1</v>
-      </c>
-      <c r="U429" s="2">
-        <v>0</v>
-      </c>
-      <c r="V429" s="3">
-        <v>1</v>
-      </c>
-      <c r="W429" s="2">
-        <v>0</v>
-      </c>
-      <c r="X429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB429" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH429" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM429" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS429" s="2">
-        <v>0</v>
-      </c>
+      <c r="A429" s="1"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="2"/>
+      <c r="H429" s="2"/>
+      <c r="I429" s="2"/>
+      <c r="J429" s="2"/>
+      <c r="K429" s="2"/>
+      <c r="L429" s="2"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="2"/>
+      <c r="O429" s="2"/>
+      <c r="P429" s="2"/>
+      <c r="Q429" s="2"/>
+      <c r="R429" s="2"/>
+      <c r="S429" s="2"/>
+      <c r="T429" s="2"/>
+      <c r="U429" s="2"/>
+      <c r="V429" s="3"/>
+      <c r="W429" s="2"/>
+      <c r="X429" s="2"/>
+      <c r="Y429" s="2"/>
+      <c r="Z429" s="2"/>
+      <c r="AA429" s="2"/>
+      <c r="AB429" s="3"/>
+      <c r="AC429" s="2"/>
+      <c r="AD429" s="2"/>
+      <c r="AE429" s="2"/>
+      <c r="AF429" s="2"/>
+      <c r="AG429" s="2"/>
+      <c r="AH429" s="3"/>
+      <c r="AI429" s="2"/>
+      <c r="AJ429" s="2"/>
+      <c r="AK429" s="2"/>
+      <c r="AL429" s="2"/>
+      <c r="AM429" s="3"/>
+      <c r="AN429" s="2"/>
+      <c r="AO429" s="2"/>
+      <c r="AP429" s="2"/>
+      <c r="AQ429" s="2"/>
+      <c r="AR429" s="2"/>
+      <c r="AS429" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U429"/>

--- a/base_datos/compras/compras_stock.xlsx
+++ b/base_datos/compras/compras_stock.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4179" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5967" uniqueCount="368">
   <si>
     <t>ID-00000001</t>
   </si>
@@ -1463,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T841"/>
+  <dimension ref="A1:T1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A803" workbookViewId="0">
-      <selection activeCell="I833" sqref="I833"/>
+    <sheetView tabSelected="1" topLeftCell="A699" workbookViewId="0">
+      <selection activeCell="H841" sqref="H841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="F602">
         <f ca="1">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G602" s="5">
         <v>45601</v>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="F603">
         <f t="shared" ref="F603:F666" ca="1" si="0">RANDBETWEEN(2,8)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G603" s="5">
         <v>45601</v>
@@ -17865,7 +17865,7 @@
       </c>
       <c r="F604">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G604" s="5">
         <v>45601</v>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="F605">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G605" s="5">
         <v>45601</v>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="F606">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G606" s="5">
         <v>45601</v>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F608">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G608" s="5">
         <v>45601</v>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="F609">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G609" s="5">
         <v>45601</v>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="F610">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G610" s="5">
         <v>45601</v>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="F611">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G611" s="5">
         <v>45601</v>
@@ -18057,7 +18057,7 @@
       </c>
       <c r="F612">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G612" s="5">
         <v>45601</v>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="F613">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G613" s="5">
         <v>45601</v>
@@ -18105,7 +18105,7 @@
       </c>
       <c r="F614">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G614" s="5">
         <v>45601</v>
@@ -18129,7 +18129,7 @@
       </c>
       <c r="F615">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G615" s="5">
         <v>45601</v>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="F616">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G616" s="5">
         <v>45601</v>
@@ -18177,7 +18177,7 @@
       </c>
       <c r="F617">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G617" s="5">
         <v>45601</v>
@@ -18201,7 +18201,7 @@
       </c>
       <c r="F618">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G618" s="5">
         <v>45601</v>
@@ -18225,7 +18225,7 @@
       </c>
       <c r="F619">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G619" s="5">
         <v>45601</v>
@@ -18249,7 +18249,7 @@
       </c>
       <c r="F620">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G620" s="5">
         <v>45601</v>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="F621">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G621" s="5">
         <v>45601</v>
@@ -18297,7 +18297,7 @@
       </c>
       <c r="F622">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G622" s="5">
         <v>45601</v>
@@ -18321,7 +18321,7 @@
       </c>
       <c r="F623">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G623" s="5">
         <v>45601</v>
@@ -18342,7 +18342,7 @@
       </c>
       <c r="F624">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G624" s="5">
         <v>45601</v>
@@ -18366,7 +18366,7 @@
       </c>
       <c r="F625">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G625" s="5">
         <v>45601</v>
@@ -18390,7 +18390,7 @@
       </c>
       <c r="F626">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G626" s="5">
         <v>45601</v>
@@ -18414,7 +18414,7 @@
       </c>
       <c r="F627">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G627" s="5">
         <v>45601</v>
@@ -18438,7 +18438,7 @@
       </c>
       <c r="F628">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G628" s="5">
         <v>45601</v>
@@ -18462,7 +18462,7 @@
       </c>
       <c r="F629">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G629" s="5">
         <v>45601</v>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="F630">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G630" s="5">
         <v>45601</v>
@@ -18510,7 +18510,7 @@
       </c>
       <c r="F631">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G631" s="5">
         <v>45601</v>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="F632">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G632" s="5">
         <v>45601</v>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="F633">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G633" s="5">
         <v>45601</v>
@@ -18582,7 +18582,7 @@
       </c>
       <c r="F634">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G634" s="5">
         <v>45601</v>
@@ -18630,7 +18630,7 @@
       </c>
       <c r="F636">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G636" s="5">
         <v>45601</v>
@@ -18654,7 +18654,7 @@
       </c>
       <c r="F637">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G637" s="5">
         <v>45601</v>
@@ -18678,7 +18678,7 @@
       </c>
       <c r="F638">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G638" s="5">
         <v>45601</v>
@@ -18702,7 +18702,7 @@
       </c>
       <c r="F639">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G639" s="5">
         <v>45601</v>
@@ -18750,7 +18750,7 @@
       </c>
       <c r="F641">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G641" s="5">
         <v>45601</v>
@@ -18774,7 +18774,7 @@
       </c>
       <c r="F642">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G642" s="5">
         <v>45601</v>
@@ -18798,7 +18798,7 @@
       </c>
       <c r="F643">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G643" s="5">
         <v>45601</v>
@@ -18846,7 +18846,7 @@
       </c>
       <c r="F645">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G645" s="5">
         <v>45601</v>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="F646">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G646" s="5">
         <v>45601</v>
@@ -18894,7 +18894,7 @@
       </c>
       <c r="F647">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G647" s="5">
         <v>45601</v>
@@ -18918,7 +18918,7 @@
       </c>
       <c r="F648">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G648" s="5">
         <v>45601</v>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="F649">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G649" s="5">
         <v>45601</v>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="F651">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G651" s="5">
         <v>45601</v>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="F652">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G652" s="5">
         <v>45601</v>
@@ -19038,7 +19038,7 @@
       </c>
       <c r="F653">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G653" s="5">
         <v>45601</v>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="F654">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G654" s="5">
         <v>45601</v>
@@ -19086,7 +19086,7 @@
       </c>
       <c r="F655">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G655" s="5">
         <v>45601</v>
@@ -19110,7 +19110,7 @@
       </c>
       <c r="F656">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G656" s="5">
         <v>45601</v>
@@ -19134,7 +19134,7 @@
       </c>
       <c r="F657">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G657" s="5">
         <v>45601</v>
@@ -19158,7 +19158,7 @@
       </c>
       <c r="F658">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G658" s="5">
         <v>45601</v>
@@ -19182,7 +19182,7 @@
       </c>
       <c r="F659">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G659" s="5">
         <v>45601</v>
@@ -19206,7 +19206,7 @@
       </c>
       <c r="F660">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G660" s="5">
         <v>45601</v>
@@ -19230,7 +19230,7 @@
       </c>
       <c r="F661">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G661" s="5">
         <v>45601</v>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="F662">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G662" s="5">
         <v>45601</v>
@@ -19302,7 +19302,7 @@
       </c>
       <c r="F664">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G664" s="5">
         <v>45601</v>
@@ -19326,7 +19326,7 @@
       </c>
       <c r="F665">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G665" s="5">
         <v>45601</v>
@@ -19350,7 +19350,7 @@
       </c>
       <c r="F666">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G666" s="5">
         <v>45601</v>
@@ -19374,7 +19374,7 @@
       </c>
       <c r="F667">
         <f t="shared" ref="F667:F721" ca="1" si="1">RANDBETWEEN(2,8)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G667" s="5">
         <v>45601</v>
@@ -19398,7 +19398,7 @@
       </c>
       <c r="F668">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G668" s="5">
         <v>45601</v>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="F669">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G669" s="5">
         <v>45601</v>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="F670">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G670" s="5">
         <v>45601</v>
@@ -19470,7 +19470,7 @@
       </c>
       <c r="F671">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G671" s="5">
         <v>45601</v>
@@ -19494,7 +19494,7 @@
       </c>
       <c r="F672">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G672" s="5">
         <v>45601</v>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="F673">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G673" s="5">
         <v>45601</v>
@@ -19542,7 +19542,7 @@
       </c>
       <c r="F674">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G674" s="5">
         <v>45601</v>
@@ -19566,7 +19566,7 @@
       </c>
       <c r="F675">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G675" s="5">
         <v>45601</v>
@@ -19590,7 +19590,7 @@
       </c>
       <c r="F676">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G676" s="5">
         <v>45601</v>
@@ -19614,7 +19614,7 @@
       </c>
       <c r="F677">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G677" s="5">
         <v>45601</v>
@@ -19638,7 +19638,7 @@
       </c>
       <c r="F678">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G678" s="5">
         <v>45601</v>
@@ -19662,7 +19662,7 @@
       </c>
       <c r="F679">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G679" s="5">
         <v>45601</v>
@@ -19686,7 +19686,7 @@
       </c>
       <c r="F680">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G680" s="5">
         <v>45601</v>
@@ -19710,7 +19710,7 @@
       </c>
       <c r="F681">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G681" s="5">
         <v>45601</v>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="F682">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G682" s="5">
         <v>45601</v>
@@ -19758,7 +19758,7 @@
       </c>
       <c r="F683">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G683" s="5">
         <v>45601</v>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="F684">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G684" s="5">
         <v>45601</v>
@@ -19806,7 +19806,7 @@
       </c>
       <c r="F685">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G685" s="5">
         <v>45601</v>
@@ -19830,7 +19830,7 @@
       </c>
       <c r="F686">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G686" s="5">
         <v>45601</v>
@@ -19854,7 +19854,7 @@
       </c>
       <c r="F687">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G687" s="5">
         <v>45601</v>
@@ -19878,7 +19878,7 @@
       </c>
       <c r="F688">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G688" s="5">
         <v>45601</v>
@@ -19926,7 +19926,7 @@
       </c>
       <c r="F690">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G690" s="5">
         <v>45601</v>
@@ -19950,7 +19950,7 @@
       </c>
       <c r="F691">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G691" s="5">
         <v>45601</v>
@@ -19998,7 +19998,7 @@
       </c>
       <c r="F693">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G693" s="5">
         <v>45601</v>
@@ -20022,7 +20022,7 @@
       </c>
       <c r="F694">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G694" s="5">
         <v>45601</v>
@@ -20046,7 +20046,7 @@
       </c>
       <c r="F695">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G695" s="5">
         <v>45601</v>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="F696">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G696" s="5">
         <v>45601</v>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="F697">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G697" s="5">
         <v>45601</v>
@@ -20118,7 +20118,7 @@
       </c>
       <c r="F698">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G698" s="5">
         <v>45601</v>
@@ -20142,7 +20142,7 @@
       </c>
       <c r="F699">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G699" s="5">
         <v>45601</v>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="F700">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G700" s="5">
         <v>45601</v>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="F701">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G701" s="5">
         <v>45601</v>
@@ -20214,7 +20214,7 @@
       </c>
       <c r="F702">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G702" s="5">
         <v>45601</v>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="F703">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G703" s="5">
         <v>45601</v>
@@ -20262,7 +20262,7 @@
       </c>
       <c r="F704">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G704" s="5">
         <v>45601</v>
@@ -20286,7 +20286,7 @@
       </c>
       <c r="F705">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G705" s="5">
         <v>45601</v>
@@ -20310,7 +20310,7 @@
       </c>
       <c r="F706">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G706" s="5">
         <v>45601</v>
@@ -20334,7 +20334,7 @@
       </c>
       <c r="F707">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G707" s="5">
         <v>45601</v>
@@ -20358,7 +20358,7 @@
       </c>
       <c r="F708">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G708" s="5">
         <v>45601</v>
@@ -20382,7 +20382,7 @@
       </c>
       <c r="F709">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G709" s="5">
         <v>45601</v>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="F711">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G711" s="5">
         <v>45601</v>
@@ -20478,7 +20478,7 @@
       </c>
       <c r="F713">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G713" s="5">
         <v>45601</v>
@@ -20526,7 +20526,7 @@
       </c>
       <c r="F715">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G715" s="5">
         <v>45601</v>
@@ -20550,7 +20550,7 @@
       </c>
       <c r="F716">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G716" s="5">
         <v>45601</v>
@@ -20598,7 +20598,7 @@
       </c>
       <c r="F718">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G718" s="5">
         <v>45601</v>
@@ -20622,7 +20622,7 @@
       </c>
       <c r="F719">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G719" s="5">
         <v>45601</v>
@@ -20646,7 +20646,7 @@
       </c>
       <c r="F720">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G720" s="5">
         <v>45601</v>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="F721">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G721" s="5">
         <v>45601</v>
@@ -23431,6 +23431,8397 @@
       </c>
       <c r="G841" s="5">
         <v>45602</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A842" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E842" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F842">
+        <v>0</v>
+      </c>
+      <c r="G842" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A843" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E843" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F843">
+        <v>0</v>
+      </c>
+      <c r="G843" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A844" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E844" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F844">
+        <v>0</v>
+      </c>
+      <c r="G844" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A845" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E845" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F845">
+        <v>0</v>
+      </c>
+      <c r="G845" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A846" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E846" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F846">
+        <v>0</v>
+      </c>
+      <c r="G846" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A847" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E847" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F847">
+        <v>0</v>
+      </c>
+      <c r="G847" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A848" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E848" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F848">
+        <v>0</v>
+      </c>
+      <c r="G848" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A849" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E849" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F849">
+        <v>0</v>
+      </c>
+      <c r="G849" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A850" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E850" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F850">
+        <v>0</v>
+      </c>
+      <c r="G850" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A851" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B851" s="4">
+        <v>250100000</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E851" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F851">
+        <v>0</v>
+      </c>
+      <c r="G851" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A852" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B852" s="4">
+        <v>250650002</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E852" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F852">
+        <v>0</v>
+      </c>
+      <c r="G852" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A853" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B853" s="4">
+        <v>250101111</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E853" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F853">
+        <v>0</v>
+      </c>
+      <c r="G853" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A854" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E854" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F854">
+        <v>0</v>
+      </c>
+      <c r="G854" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A855" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E855" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F855">
+        <v>0</v>
+      </c>
+      <c r="G855" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A856" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E856" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F856">
+        <v>0</v>
+      </c>
+      <c r="G856" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A857" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E857" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F857">
+        <v>0</v>
+      </c>
+      <c r="G857" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A858" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E858" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F858">
+        <v>0</v>
+      </c>
+      <c r="G858" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A859" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E859" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F859">
+        <v>0</v>
+      </c>
+      <c r="G859" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A860" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E860" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F860">
+        <v>0</v>
+      </c>
+      <c r="G860" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A861" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E861" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F861">
+        <v>0</v>
+      </c>
+      <c r="G861" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A862" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E862" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F862">
+        <v>0</v>
+      </c>
+      <c r="G862" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A863" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F863">
+        <v>0</v>
+      </c>
+      <c r="G863" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A864" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F864">
+        <v>0</v>
+      </c>
+      <c r="G864" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A865" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F865">
+        <v>0</v>
+      </c>
+      <c r="G865" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A866" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F866">
+        <v>0</v>
+      </c>
+      <c r="G866" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A867" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F867">
+        <v>0</v>
+      </c>
+      <c r="G867" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A868" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F868">
+        <v>0</v>
+      </c>
+      <c r="G868" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A869" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F869">
+        <v>0</v>
+      </c>
+      <c r="G869" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A870" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F870">
+        <v>0</v>
+      </c>
+      <c r="G870" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A871" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F871">
+        <v>0</v>
+      </c>
+      <c r="G871" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A872" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F872">
+        <v>0</v>
+      </c>
+      <c r="G872" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A873" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F873">
+        <v>0</v>
+      </c>
+      <c r="G873" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A874" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F874">
+        <v>0</v>
+      </c>
+      <c r="G874" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A875" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F875">
+        <v>0</v>
+      </c>
+      <c r="G875" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A876" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F876">
+        <v>0</v>
+      </c>
+      <c r="G876" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A877" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E877" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F877">
+        <v>0</v>
+      </c>
+      <c r="G877" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A878" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E878" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F878">
+        <v>0</v>
+      </c>
+      <c r="G878" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A879" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E879" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F879">
+        <v>0</v>
+      </c>
+      <c r="G879" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A880" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E880" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F880">
+        <v>0</v>
+      </c>
+      <c r="G880" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A881" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E881" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F881">
+        <v>0</v>
+      </c>
+      <c r="G881" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A882" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F882">
+        <v>0</v>
+      </c>
+      <c r="G882" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A883" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F883">
+        <v>0</v>
+      </c>
+      <c r="G883" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A884" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F884">
+        <v>0</v>
+      </c>
+      <c r="G884" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A885" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E885" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F885">
+        <v>0</v>
+      </c>
+      <c r="G885" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A886" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E886" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F886">
+        <v>0</v>
+      </c>
+      <c r="G886" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A887" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E887" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F887">
+        <v>0</v>
+      </c>
+      <c r="G887" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A888" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F888">
+        <v>0</v>
+      </c>
+      <c r="G888" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A889" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E889" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F889">
+        <v>0</v>
+      </c>
+      <c r="G889" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A890" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E890" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F890">
+        <v>0</v>
+      </c>
+      <c r="G890" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A891" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E891" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F891">
+        <v>0</v>
+      </c>
+      <c r="G891" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A892" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E892" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F892">
+        <v>0</v>
+      </c>
+      <c r="G892" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A893" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E893" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F893">
+        <v>0</v>
+      </c>
+      <c r="G893" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A894" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E894" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F894">
+        <v>0</v>
+      </c>
+      <c r="G894" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A895" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E895" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F895">
+        <v>0</v>
+      </c>
+      <c r="G895" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A896" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E896" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F896">
+        <v>0</v>
+      </c>
+      <c r="G896" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A897" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D897" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E897" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F897">
+        <v>0</v>
+      </c>
+      <c r="G897" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A898" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D898" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E898" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F898">
+        <v>0</v>
+      </c>
+      <c r="G898" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A899" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D899" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E899" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F899">
+        <v>0</v>
+      </c>
+      <c r="G899" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A900" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D900" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E900" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F900">
+        <v>0</v>
+      </c>
+      <c r="G900" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A901" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D901" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E901" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F901">
+        <v>0</v>
+      </c>
+      <c r="G901" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A902" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D902" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E902" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F902">
+        <v>0</v>
+      </c>
+      <c r="G902" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A903" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D903" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E903" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F903">
+        <v>0</v>
+      </c>
+      <c r="G903" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A904" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D904" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E904" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F904">
+        <v>0</v>
+      </c>
+      <c r="G904" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A905" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D905" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E905" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F905">
+        <v>0</v>
+      </c>
+      <c r="G905" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A906" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D906" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E906" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F906">
+        <v>0</v>
+      </c>
+      <c r="G906" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A907" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E907" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F907">
+        <v>0</v>
+      </c>
+      <c r="G907" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A908" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E908" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F908">
+        <v>0</v>
+      </c>
+      <c r="G908" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A909" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F909">
+        <v>0</v>
+      </c>
+      <c r="G909" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A910" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F910">
+        <v>0</v>
+      </c>
+      <c r="G910" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A911" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F911">
+        <v>0</v>
+      </c>
+      <c r="G911" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A912" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F912">
+        <v>0</v>
+      </c>
+      <c r="G912" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A913" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D913" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E913" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F913">
+        <v>0</v>
+      </c>
+      <c r="G913" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A914" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D914" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E914" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F914">
+        <v>0</v>
+      </c>
+      <c r="G914" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A915" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D915" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E915" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F915">
+        <v>0</v>
+      </c>
+      <c r="G915" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A916" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D916" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E916" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F916">
+        <v>0</v>
+      </c>
+      <c r="G916" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A917" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D917" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E917" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F917">
+        <v>0</v>
+      </c>
+      <c r="G917" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A918" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E918" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F918">
+        <v>0</v>
+      </c>
+      <c r="G918" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A919" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D919" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F919">
+        <v>0</v>
+      </c>
+      <c r="G919" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A920" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D920" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E920" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F920">
+        <v>0</v>
+      </c>
+      <c r="G920" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A921" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D921" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E921" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F921">
+        <v>0</v>
+      </c>
+      <c r="G921" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A922" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D922" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E922" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F922">
+        <v>0</v>
+      </c>
+      <c r="G922" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A923" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D923" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E923" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F923">
+        <v>0</v>
+      </c>
+      <c r="G923" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A924" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D924" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E924" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
+      </c>
+      <c r="G924" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A925" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E925" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F925">
+        <v>0</v>
+      </c>
+      <c r="G925" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A926" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D926" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E926" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F926">
+        <v>0</v>
+      </c>
+      <c r="G926" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A927" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D927" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E927" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F927">
+        <v>0</v>
+      </c>
+      <c r="G927" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A928" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D928" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E928" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F928">
+        <v>0</v>
+      </c>
+      <c r="G928" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A929" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D929" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E929" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F929">
+        <v>0</v>
+      </c>
+      <c r="G929" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A930" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E930" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F930">
+        <v>0</v>
+      </c>
+      <c r="G930" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A931" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E931" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F931">
+        <v>0</v>
+      </c>
+      <c r="G931" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A932" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D932" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E932" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F932">
+        <v>0</v>
+      </c>
+      <c r="G932" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A933" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D933" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E933" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F933">
+        <v>0</v>
+      </c>
+      <c r="G933" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A934" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E934" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F934">
+        <v>0</v>
+      </c>
+      <c r="G934" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A935" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C935" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E935" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F935">
+        <v>0</v>
+      </c>
+      <c r="G935" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A936" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C936" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E936" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F936">
+        <v>0</v>
+      </c>
+      <c r="G936" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A937" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C937" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E937" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F937">
+        <v>0</v>
+      </c>
+      <c r="G937" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A938" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C938" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E938" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
+      </c>
+      <c r="G938" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A939" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E939" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F939">
+        <v>0</v>
+      </c>
+      <c r="G939" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A940" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C940" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E940" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F940">
+        <v>0</v>
+      </c>
+      <c r="G940" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A941" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C941" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D941" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E941" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F941">
+        <v>0</v>
+      </c>
+      <c r="G941" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A942" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C942" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D942" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E942" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F942">
+        <v>0</v>
+      </c>
+      <c r="G942" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A943" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C943" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D943" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E943" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F943">
+        <v>0</v>
+      </c>
+      <c r="G943" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A944" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C944" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E944" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F944">
+        <v>0</v>
+      </c>
+      <c r="G944" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A945" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C945" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D945" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E945" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F945">
+        <v>0</v>
+      </c>
+      <c r="G945" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A946" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C946" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D946" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E946" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F946">
+        <v>0</v>
+      </c>
+      <c r="G946" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A947" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C947" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E947" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F947">
+        <v>0</v>
+      </c>
+      <c r="G947" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A948" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C948" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D948" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E948" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F948">
+        <v>0</v>
+      </c>
+      <c r="G948" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A949" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C949" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E949" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F949">
+        <v>0</v>
+      </c>
+      <c r="G949" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A950" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C950" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D950" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E950" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F950">
+        <v>0</v>
+      </c>
+      <c r="G950" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A951" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C951" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D951" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E951" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F951">
+        <v>0</v>
+      </c>
+      <c r="G951" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A952" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C952" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D952" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E952" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F952">
+        <v>0</v>
+      </c>
+      <c r="G952" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A953" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C953" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D953" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E953" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F953">
+        <v>0</v>
+      </c>
+      <c r="G953" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A954" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C954" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D954" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E954" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F954">
+        <v>0</v>
+      </c>
+      <c r="G954" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A955" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C955" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D955" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E955" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F955">
+        <v>0</v>
+      </c>
+      <c r="G955" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A956" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C956" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D956" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E956" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F956">
+        <v>0</v>
+      </c>
+      <c r="G956" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A957" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C957" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D957" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E957" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F957">
+        <v>0</v>
+      </c>
+      <c r="G957" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A958" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C958" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D958" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E958" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F958">
+        <v>0</v>
+      </c>
+      <c r="G958" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A959" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D959" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E959" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F959">
+        <v>0</v>
+      </c>
+      <c r="G959" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A960" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C960" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E960" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F960">
+        <v>0</v>
+      </c>
+      <c r="G960" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A961" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C961" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D961" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E961" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F961">
+        <v>0</v>
+      </c>
+      <c r="G961" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A962" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C962" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D962" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E962" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F962">
+        <f ca="1">RANDBETWEEN(2,8)</f>
+        <v>5</v>
+      </c>
+      <c r="G962" s="5">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A963" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C963" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E963" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F963">
+        <f t="shared" ref="F963:F1026" ca="1" si="2">RANDBETWEEN(2,8)</f>
+        <v>2</v>
+      </c>
+      <c r="G963" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A964" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C964" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E964" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F964">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G964" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A965" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C965" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D965" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E965" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F965">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G965" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A966" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C966" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D966" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E966" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F966">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G966" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A967" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C967" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D967" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E967" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F967">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G967" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A968" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C968" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D968" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E968" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F968">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G968" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A969" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C969" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D969" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E969" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F969">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G969" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A970" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D970" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E970" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F970">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G970" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A971" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B971" s="4">
+        <v>250100000</v>
+      </c>
+      <c r="C971" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D971" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E971" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F971">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G971" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A972" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B972" s="4">
+        <v>250650002</v>
+      </c>
+      <c r="C972" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D972" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E972" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F972">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G972" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A973" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B973" s="4">
+        <v>250101111</v>
+      </c>
+      <c r="C973" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D973" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E973" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F973">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G973" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A974" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C974" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D974" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E974" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F974">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G974" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A975" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C975" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D975" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E975" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F975">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G975" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A976" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C976" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D976" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E976" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F976">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G976" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A977" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C977" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D977" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E977" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F977">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G977" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A978" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C978" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D978" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E978" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F978">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G978" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A979" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D979" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E979" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F979">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G979" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A980" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D980" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E980" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F980">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G980" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A981" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D981" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F981">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G981" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A982" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D982" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E982" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F982">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G982" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A983" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D983" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E983" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F983">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G983" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A984" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D984" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E984" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F984">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G984" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A985" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D985" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E985" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F985">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G985" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A986" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D986" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E986" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F986">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G986" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A987" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D987" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E987" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F987">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G987" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A988" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D988" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E988" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F988">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G988" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A989" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D989" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F989">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G989" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A990" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D990" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E990" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F990">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G990" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A991" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D991" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E991" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F991">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G991" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A992" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D992" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E992" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F992">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G992" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A993" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D993" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E993" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F993">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G993" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A994" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D994" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E994" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F994">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G994" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A995" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D995" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E995" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F995">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G995" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A996" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D996" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E996" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F996">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G996" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A997" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D997" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E997" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F997">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G997" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A998" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D998" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E998" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F998">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G998" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A999" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D999" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E999" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F999">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G999" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1000" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1000" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1000" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1000">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G1000" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1001" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1001" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1001" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1001">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G1001" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1002" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1002" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1002" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1002">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G1002" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1003" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1003" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1003" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1003">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G1003" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1004" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1004" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1004" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1004">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G1004" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1005" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1005" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1005">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G1005" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1006" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1006">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G1006" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1007" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1007" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G1007" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1008" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1008">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G1008" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1009" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1009">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G1009" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1010" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1010">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G1010" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1011" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1011">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G1011" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1012" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1012">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G1012" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1013" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1013">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G1013" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1014" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1014" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1014">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G1014" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1015" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1015" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1015">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G1015" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1016" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1016" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1016">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G1016" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1017" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1017" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1017">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G1017" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1018" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1018" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1018">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G1018" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1019" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1019">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G1019" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1020" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1020">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G1020" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1021" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1021">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G1021" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1022" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1022">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G1022" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1023" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1023">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G1023" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1024" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1024">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G1024" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1025" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1025">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G1025" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1026" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1026">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G1026" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1027" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1027">
+        <f t="shared" ref="F1027:F1081" ca="1" si="3">RANDBETWEEN(2,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G1027" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1028" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1028">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1028" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1029" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1029">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G1029" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1030" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1030">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1030" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1031" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1031">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G1031" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1032" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1032">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G1032" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1033" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1033">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1033" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1034" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1034" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1034">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G1034" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1035" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1035" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1035">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G1035" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1036" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1036" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1036" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1036">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1036" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1037" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1037" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1037">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1037" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1038" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1038" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1038">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G1038" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1039" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1039" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1039">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G1039" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1040" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1040" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1040">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G1040" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1041" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1041" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1041">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G1041" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1042" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1042" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1042">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1042" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1043" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1043" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1043">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G1043" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1044" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1044" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1044">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1044" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1045" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1045" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1045">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1045" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1046" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1046" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1046">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1046" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1047" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1047" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1047">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1047" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1048" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1048" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1048">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G1048" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1049" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1049" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1049">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1049" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1050" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1050" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1050">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1050" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1051" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1051" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1051">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G1051" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1052" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1052" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1052">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1052" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1053" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1053" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1053">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1053" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1054" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1054" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1054" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1054">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1054" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1055" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1055" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1055" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1055">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G1055" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1056" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1056" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1056" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1056">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1056" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1057" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1057" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1057">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1057" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1058" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1058" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1058" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1058">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G1058" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1059" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1059" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1059" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1059">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1059" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1060" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1060" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1060" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1060">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1060" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1061" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1061" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1061" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1061">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1061" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1062" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1062" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1062" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1062">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1062" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1063" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1063" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1063" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1063">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G1063" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1064" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1064" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1064">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1064" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1065" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1065" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1065">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1065" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1066" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1066" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1066">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1066" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1067" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1067" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1067">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1067" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1068" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1068">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G1068" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1069" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1069" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1069" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1069">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G1069" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1070" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1070" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1070" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1070" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1070">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G1070" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1071" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1071" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1071" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1071" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1071">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1071" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1072" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1072" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1072" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1072">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1072" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1073" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1073" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1073" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1073" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1073">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G1073" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1074" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1074" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1074" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1074" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1074">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1074" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1075" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1075" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1075" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1075" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1075">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G1075" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1076" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1076" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1076" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1076">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1076" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1077" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1077" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1077" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1077">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G1077" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1078" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1078" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1078" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1078" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1078">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1078" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1079" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1079" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1079" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1079" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1079">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G1079" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1080" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1080" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1080" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1080">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1080" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1081" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1081" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1081" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1081">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G1081" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1082" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1082" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1082" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1082">
+        <v>0</v>
+      </c>
+      <c r="G1082" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1083" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1083" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1083" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1083" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1083">
+        <v>0</v>
+      </c>
+      <c r="G1083" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1084" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1084" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1084" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1084">
+        <v>0</v>
+      </c>
+      <c r="G1084" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1085" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1085" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1085" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1085">
+        <v>0</v>
+      </c>
+      <c r="G1085" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1086" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1086" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1086" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1086">
+        <v>0</v>
+      </c>
+      <c r="G1086" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1087" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1087" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1087" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1087" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1087">
+        <v>0</v>
+      </c>
+      <c r="G1087" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1088" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1088" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1088" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1088" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1088">
+        <v>0</v>
+      </c>
+      <c r="G1088" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1089" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1089" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1089" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1089">
+        <v>0</v>
+      </c>
+      <c r="G1089" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1090" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1090" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1090" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1090">
+        <v>0</v>
+      </c>
+      <c r="G1090" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1091" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1091" s="4">
+        <v>250100000</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1091" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1091">
+        <v>0</v>
+      </c>
+      <c r="G1091" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1092" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1092" s="4">
+        <v>250650002</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1092" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1092" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1092">
+        <v>0</v>
+      </c>
+      <c r="G1092" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1093" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1093" s="4">
+        <v>250101111</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1093" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1093" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1093">
+        <v>0</v>
+      </c>
+      <c r="G1093" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1094" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1094" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1094" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1094" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1094">
+        <v>0</v>
+      </c>
+      <c r="G1094" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1095" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1095" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1095" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1095" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1095">
+        <v>0</v>
+      </c>
+      <c r="G1095" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1096" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1096" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1096" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1096">
+        <v>0</v>
+      </c>
+      <c r="G1096" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1097" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1097" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1097">
+        <v>0</v>
+      </c>
+      <c r="G1097" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1098" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1098" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1098" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1098">
+        <v>0</v>
+      </c>
+      <c r="G1098" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1099" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1099" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1099" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1099">
+        <v>0</v>
+      </c>
+      <c r="G1099" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1100" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1100">
+        <v>0</v>
+      </c>
+      <c r="G1100" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1101" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1101">
+        <v>0</v>
+      </c>
+      <c r="G1101" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1102">
+        <v>0</v>
+      </c>
+      <c r="G1102" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1103">
+        <v>0</v>
+      </c>
+      <c r="G1103" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1104">
+        <v>0</v>
+      </c>
+      <c r="G1104" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1105">
+        <v>0</v>
+      </c>
+      <c r="G1105" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1106">
+        <v>0</v>
+      </c>
+      <c r="G1106" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1107">
+        <v>0</v>
+      </c>
+      <c r="G1107" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1108">
+        <v>0</v>
+      </c>
+      <c r="G1108" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1109" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1109" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1109">
+        <v>0</v>
+      </c>
+      <c r="G1109" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1110">
+        <v>0</v>
+      </c>
+      <c r="G1110" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1111">
+        <v>0</v>
+      </c>
+      <c r="G1111" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1112" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1112">
+        <v>0</v>
+      </c>
+      <c r="G1112" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1113" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1113">
+        <v>0</v>
+      </c>
+      <c r="G1113" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1114" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1114" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1114">
+        <v>0</v>
+      </c>
+      <c r="G1114" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1115" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1115" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1115">
+        <v>0</v>
+      </c>
+      <c r="G1115" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1116" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1116">
+        <v>0</v>
+      </c>
+      <c r="G1116" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1117" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1117" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1117">
+        <v>0</v>
+      </c>
+      <c r="G1117" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1118">
+        <v>0</v>
+      </c>
+      <c r="G1118" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1119" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1119">
+        <v>0</v>
+      </c>
+      <c r="G1119" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1120" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1120">
+        <v>0</v>
+      </c>
+      <c r="G1120" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1121" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1121">
+        <v>0</v>
+      </c>
+      <c r="G1121" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1122" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1122">
+        <v>0</v>
+      </c>
+      <c r="G1122" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1123" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1123">
+        <v>0</v>
+      </c>
+      <c r="G1123" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1124">
+        <v>0</v>
+      </c>
+      <c r="G1124" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1125">
+        <v>0</v>
+      </c>
+      <c r="G1125" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1126" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1126">
+        <v>0</v>
+      </c>
+      <c r="G1126" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1127" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1127">
+        <v>0</v>
+      </c>
+      <c r="G1127" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1128" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1128">
+        <v>0</v>
+      </c>
+      <c r="G1128" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1129" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1129">
+        <v>0</v>
+      </c>
+      <c r="G1129" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1130" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1130">
+        <v>0</v>
+      </c>
+      <c r="G1130" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1131" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1131" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1131">
+        <v>0</v>
+      </c>
+      <c r="G1131" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1132" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1132" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1132">
+        <v>0</v>
+      </c>
+      <c r="G1132" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1133" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1133">
+        <v>0</v>
+      </c>
+      <c r="G1133" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1134" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1134" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1134">
+        <v>0</v>
+      </c>
+      <c r="G1134" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1135" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1135" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1135">
+        <v>0</v>
+      </c>
+      <c r="G1135" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1136" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1136" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1136">
+        <v>0</v>
+      </c>
+      <c r="G1136" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1137" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1137" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1137">
+        <v>0</v>
+      </c>
+      <c r="G1137" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1138" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1138" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1138">
+        <v>0</v>
+      </c>
+      <c r="G1138" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1139" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1139" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1139">
+        <v>0</v>
+      </c>
+      <c r="G1139" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1140" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1140" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1140">
+        <v>0</v>
+      </c>
+      <c r="G1140" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1141" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1141" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1141">
+        <v>0</v>
+      </c>
+      <c r="G1141" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1142" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1142" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1142">
+        <v>0</v>
+      </c>
+      <c r="G1142" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1143" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1143" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1143">
+        <v>0</v>
+      </c>
+      <c r="G1143" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1144" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1144">
+        <v>0</v>
+      </c>
+      <c r="G1144" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1145" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1145" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1145">
+        <v>0</v>
+      </c>
+      <c r="G1145" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1146" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1146" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1146">
+        <v>0</v>
+      </c>
+      <c r="G1146" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1147" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1147" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1147">
+        <v>0</v>
+      </c>
+      <c r="G1147" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1148" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1148" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1148">
+        <v>0</v>
+      </c>
+      <c r="G1148" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1149" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1149" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1149">
+        <v>0</v>
+      </c>
+      <c r="G1149" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1150" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1150" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1150">
+        <v>0</v>
+      </c>
+      <c r="G1150" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1151" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1151" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1151">
+        <v>0</v>
+      </c>
+      <c r="G1151" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1152" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1152" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1152">
+        <v>0</v>
+      </c>
+      <c r="G1152" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1153" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1153" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1153">
+        <v>0</v>
+      </c>
+      <c r="G1153" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1154" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1154" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1154">
+        <v>0</v>
+      </c>
+      <c r="G1154" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1155" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1155" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1155">
+        <v>0</v>
+      </c>
+      <c r="G1155" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1156" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1156" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1156">
+        <v>0</v>
+      </c>
+      <c r="G1156" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1157" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1157" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1157">
+        <v>0</v>
+      </c>
+      <c r="G1157" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1158" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1158" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1158">
+        <v>0</v>
+      </c>
+      <c r="G1158" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1159" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1159" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1159">
+        <v>0</v>
+      </c>
+      <c r="G1159" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1160" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1160" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1160">
+        <v>0</v>
+      </c>
+      <c r="G1160" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1161" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1161" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1161">
+        <v>0</v>
+      </c>
+      <c r="G1161" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1162" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1162" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1162">
+        <v>0</v>
+      </c>
+      <c r="G1162" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1163" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1163" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1163">
+        <v>0</v>
+      </c>
+      <c r="G1163" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1164" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1164" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1164">
+        <v>0</v>
+      </c>
+      <c r="G1164" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1165" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1165" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1165">
+        <v>0</v>
+      </c>
+      <c r="G1165" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1166" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1166" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1166">
+        <v>0</v>
+      </c>
+      <c r="G1166" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1167" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1167" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1167">
+        <v>0</v>
+      </c>
+      <c r="G1167" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1168" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1168" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1168">
+        <v>0</v>
+      </c>
+      <c r="G1168" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1169" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1169" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1169">
+        <v>0</v>
+      </c>
+      <c r="G1169" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1170" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1170" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1170">
+        <v>0</v>
+      </c>
+      <c r="G1170" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1171" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1171" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1171">
+        <v>0</v>
+      </c>
+      <c r="G1171" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1172" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1172" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1172">
+        <v>0</v>
+      </c>
+      <c r="G1172" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1173" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1173" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1173">
+        <v>0</v>
+      </c>
+      <c r="G1173" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1174" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1174" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1174">
+        <v>0</v>
+      </c>
+      <c r="G1174" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1175" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1175" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1175">
+        <v>0</v>
+      </c>
+      <c r="G1175" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1176" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1176" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1176">
+        <v>0</v>
+      </c>
+      <c r="G1176" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1177" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1177" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1177">
+        <v>0</v>
+      </c>
+      <c r="G1177" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1178" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1178" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1178">
+        <v>0</v>
+      </c>
+      <c r="G1178" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1179" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1179" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1179">
+        <v>0</v>
+      </c>
+      <c r="G1179" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1180" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1180" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1180">
+        <v>0</v>
+      </c>
+      <c r="G1180" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1181" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1181" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1181">
+        <v>0</v>
+      </c>
+      <c r="G1181" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1182" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1182" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1182" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1182">
+        <v>0</v>
+      </c>
+      <c r="G1182" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1183" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1183" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1183">
+        <v>0</v>
+      </c>
+      <c r="G1183" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1184" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1184" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1184">
+        <v>0</v>
+      </c>
+      <c r="G1184" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1185" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1185" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1185">
+        <v>0</v>
+      </c>
+      <c r="G1185" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1186" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1186" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1186">
+        <v>0</v>
+      </c>
+      <c r="G1186" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1187" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1187" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1187">
+        <v>0</v>
+      </c>
+      <c r="G1187" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1188" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1188" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1188">
+        <v>0</v>
+      </c>
+      <c r="G1188" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1189" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1189" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1189">
+        <v>0</v>
+      </c>
+      <c r="G1189" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1190" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1190" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1190" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1190">
+        <v>0</v>
+      </c>
+      <c r="G1190" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1191" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1191" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1191">
+        <v>0</v>
+      </c>
+      <c r="G1191" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1192" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1192" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1192" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1192">
+        <v>0</v>
+      </c>
+      <c r="G1192" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1193" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1193" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1193" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1193">
+        <v>0</v>
+      </c>
+      <c r="G1193" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1194" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1194" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1194">
+        <v>0</v>
+      </c>
+      <c r="G1194" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1195" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1195" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1195">
+        <v>0</v>
+      </c>
+      <c r="G1195" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1196" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1196" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1196">
+        <v>0</v>
+      </c>
+      <c r="G1196" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1197" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1197" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1197">
+        <v>0</v>
+      </c>
+      <c r="G1197" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1198" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1198" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1198">
+        <v>0</v>
+      </c>
+      <c r="G1198" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1199" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1199" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1199">
+        <v>0</v>
+      </c>
+      <c r="G1199" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1200" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1200" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1200">
+        <v>0</v>
+      </c>
+      <c r="G1200" s="5">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1201" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1201" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1201">
+        <v>0</v>
+      </c>
+      <c r="G1201" s="5">
+        <v>45604</v>
       </c>
     </row>
   </sheetData>
